--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.1322703043573</v>
+        <v>415.5272057408332</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.91772489792</v>
+        <v>568.542654661135</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.9866297497842</v>
+        <v>514.2817416549028</v>
       </c>
       <c r="AD2" t="n">
-        <v>298132.2703043573</v>
+        <v>415527.2057408331</v>
       </c>
       <c r="AE2" t="n">
-        <v>407917.72489792</v>
+        <v>568542.6546611349</v>
       </c>
       <c r="AF2" t="n">
         <v>6.461315252787155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>368986.6297497842</v>
+        <v>514281.7416549029</v>
       </c>
     </row>
     <row r="3">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.3520332788033</v>
+        <v>378.9584474449307</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.2758231388826</v>
+        <v>518.5076662609263</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.8417796673974</v>
+        <v>469.0220223230628</v>
       </c>
       <c r="AD3" t="n">
-        <v>271352.0332788033</v>
+        <v>378958.4474449307</v>
       </c>
       <c r="AE3" t="n">
-        <v>371275.8231388826</v>
+        <v>518507.6662609263</v>
       </c>
       <c r="AF3" t="n">
         <v>7.000848064478095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>335841.7796673974</v>
+        <v>469022.0223230628</v>
       </c>
     </row>
     <row r="4">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.1431469927956</v>
+        <v>364.7153957401454</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.8345980703785</v>
+        <v>499.0196945593451</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.2559978336064</v>
+        <v>451.3939552891405</v>
       </c>
       <c r="AD4" t="n">
-        <v>257143.1469927956</v>
+        <v>364715.3957401454</v>
       </c>
       <c r="AE4" t="n">
-        <v>351834.5980703785</v>
+        <v>499019.6945593451</v>
       </c>
       <c r="AF4" t="n">
         <v>7.358668250247656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>318255.9978336064</v>
+        <v>451393.9552891405</v>
       </c>
     </row>
     <row r="5">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.5337612098241</v>
+        <v>341.3516541056062</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.2136360384</v>
+        <v>467.0523925194334</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.4121942832697</v>
+        <v>422.4775676895277</v>
       </c>
       <c r="AD5" t="n">
-        <v>243533.7612098241</v>
+        <v>341351.6541056062</v>
       </c>
       <c r="AE5" t="n">
-        <v>333213.6360384</v>
+        <v>467052.3925194334</v>
       </c>
       <c r="AF5" t="n">
         <v>7.70353048756843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>301412.1942832697</v>
+        <v>422477.5676895278</v>
       </c>
     </row>
     <row r="6">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.5509731575736</v>
+        <v>328.4361858610599</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.4500126651343</v>
+        <v>449.380879077</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.3439061933408</v>
+        <v>406.4925986879153</v>
       </c>
       <c r="AD6" t="n">
-        <v>230550.9731575736</v>
+        <v>328436.1858610599</v>
       </c>
       <c r="AE6" t="n">
-        <v>315450.0126651343</v>
+        <v>449380.879077</v>
       </c>
       <c r="AF6" t="n">
         <v>7.970705303724141e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>285343.9061933408</v>
+        <v>406492.5986879154</v>
       </c>
     </row>
     <row r="7">
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>229.6657371136364</v>
+        <v>327.5509498171227</v>
       </c>
       <c r="AB7" t="n">
-        <v>314.238793655962</v>
+        <v>448.1696600678271</v>
       </c>
       <c r="AC7" t="n">
-        <v>284.248284226447</v>
+        <v>405.3969767210214</v>
       </c>
       <c r="AD7" t="n">
-        <v>229665.7371136364</v>
+        <v>327550.9498171227</v>
       </c>
       <c r="AE7" t="n">
-        <v>314238.793655962</v>
+        <v>448169.6600678271</v>
       </c>
       <c r="AF7" t="n">
         <v>8.037423670853484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>284248.284226447</v>
+        <v>405396.9767210214</v>
       </c>
     </row>
     <row r="8">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>228.9478612416326</v>
+        <v>326.7315887186337</v>
       </c>
       <c r="AB8" t="n">
-        <v>313.2565642174386</v>
+        <v>447.0485740652139</v>
       </c>
       <c r="AC8" t="n">
-        <v>283.3597973869683</v>
+        <v>404.3828855930435</v>
       </c>
       <c r="AD8" t="n">
-        <v>228947.8612416326</v>
+        <v>326731.5887186337</v>
       </c>
       <c r="AE8" t="n">
-        <v>313256.5642174386</v>
+        <v>447048.5740652139</v>
       </c>
       <c r="AF8" t="n">
         <v>8.100164249156685e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>283359.7973869683</v>
+        <v>404382.8855930435</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.7996341789238</v>
+        <v>600.8578662682299</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.4390650221209</v>
+        <v>822.1202406064133</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.1838279393324</v>
+        <v>743.6582386959411</v>
       </c>
       <c r="AD2" t="n">
-        <v>430799.6341789238</v>
+        <v>600857.8662682299</v>
       </c>
       <c r="AE2" t="n">
-        <v>589439.0650221208</v>
+        <v>822120.2406064133</v>
       </c>
       <c r="AF2" t="n">
         <v>4.109245783844002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>533183.8279393325</v>
+        <v>743658.2386959412</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0117698500558</v>
+        <v>522.148677432368</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.0029155098322</v>
+        <v>714.4268560368458</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.4243916436517</v>
+        <v>646.2429596010785</v>
       </c>
       <c r="AD3" t="n">
-        <v>372011.7698500558</v>
+        <v>522148.677432368</v>
       </c>
       <c r="AE3" t="n">
-        <v>509002.9155098322</v>
+        <v>714426.8560368458</v>
       </c>
       <c r="AF3" t="n">
         <v>4.656268402449019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.61979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>460424.3916436518</v>
+        <v>646242.9596010785</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.5945935418036</v>
+        <v>471.6755370017131</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.3847929737702</v>
+        <v>645.3672785818218</v>
       </c>
       <c r="AC4" t="n">
-        <v>422.7782443110296</v>
+        <v>583.7743312926364</v>
       </c>
       <c r="AD4" t="n">
-        <v>341594.5935418036</v>
+        <v>471675.5370017131</v>
       </c>
       <c r="AE4" t="n">
-        <v>467384.7929737702</v>
+        <v>645367.2785818218</v>
       </c>
       <c r="AF4" t="n">
         <v>5.051962937677198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>422778.2443110296</v>
+        <v>583774.3312926363</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.268016037271</v>
+        <v>445.3821138861041</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.3636081854399</v>
+        <v>609.3914570910854</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.1948708428473</v>
+        <v>551.2319917125931</v>
       </c>
       <c r="AD5" t="n">
-        <v>315268.016037271</v>
+        <v>445382.1138861041</v>
       </c>
       <c r="AE5" t="n">
-        <v>431363.60818544</v>
+        <v>609391.4570910854</v>
       </c>
       <c r="AF5" t="n">
         <v>5.334404497419091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>390194.8708428473</v>
+        <v>551231.9917125931</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.0396603666425</v>
+        <v>431.1091989598125</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.5781854149993</v>
+        <v>589.8626252123669</v>
       </c>
       <c r="AC6" t="n">
-        <v>384.9616007017256</v>
+        <v>533.5669641394919</v>
       </c>
       <c r="AD6" t="n">
-        <v>311039.6603666425</v>
+        <v>431109.1989598125</v>
       </c>
       <c r="AE6" t="n">
-        <v>425578.1854149993</v>
+        <v>589862.6252123669</v>
       </c>
       <c r="AF6" t="n">
         <v>5.551238142758175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>384961.6007017256</v>
+        <v>533566.9641394919</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.3944449304805</v>
+        <v>417.4298181048696</v>
       </c>
       <c r="AB7" t="n">
-        <v>406.9081996708233</v>
+        <v>571.1458928349431</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.0734521934843</v>
+        <v>516.6365304310706</v>
       </c>
       <c r="AD7" t="n">
-        <v>297394.4449304804</v>
+        <v>417429.8181048696</v>
       </c>
       <c r="AE7" t="n">
-        <v>406908.1996708233</v>
+        <v>571145.8928349431</v>
       </c>
       <c r="AF7" t="n">
         <v>5.743302497480284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>368073.4521934843</v>
+        <v>516636.5304310705</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>284.4948512561117</v>
+        <v>404.5975442382053</v>
       </c>
       <c r="AB8" t="n">
-        <v>389.2584065156435</v>
+        <v>553.5882096106048</v>
       </c>
       <c r="AC8" t="n">
-        <v>352.1081305253945</v>
+        <v>500.7545278512999</v>
       </c>
       <c r="AD8" t="n">
-        <v>284494.8512561117</v>
+        <v>404597.5442382053</v>
       </c>
       <c r="AE8" t="n">
-        <v>389258.4065156435</v>
+        <v>553588.2096106048</v>
       </c>
       <c r="AF8" t="n">
         <v>5.900055260207122e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>352108.1305253945</v>
+        <v>500754.5278513</v>
       </c>
     </row>
     <row r="9">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.8033897028775</v>
+        <v>390.8719172661903</v>
       </c>
       <c r="AB9" t="n">
-        <v>370.5251447938546</v>
+        <v>534.8082012555682</v>
       </c>
       <c r="AC9" t="n">
-        <v>335.1627450100353</v>
+        <v>483.7668571357607</v>
       </c>
       <c r="AD9" t="n">
-        <v>270803.3897028775</v>
+        <v>390871.9172661903</v>
       </c>
       <c r="AE9" t="n">
-        <v>370525.1447938546</v>
+        <v>534808.2012555682</v>
       </c>
       <c r="AF9" t="n">
         <v>6.100051929073098e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>335162.7450100353</v>
+        <v>483766.8571357608</v>
       </c>
     </row>
     <row r="10">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>282.3506791368148</v>
+        <v>392.4088128632453</v>
       </c>
       <c r="AB10" t="n">
-        <v>386.3246556278237</v>
+        <v>536.9110496145072</v>
       </c>
       <c r="AC10" t="n">
-        <v>349.454372704763</v>
+        <v>485.6690125986888</v>
       </c>
       <c r="AD10" t="n">
-        <v>282350.6791368148</v>
+        <v>392408.8128632453</v>
       </c>
       <c r="AE10" t="n">
-        <v>386324.6556278237</v>
+        <v>536911.0496145072</v>
       </c>
       <c r="AF10" t="n">
         <v>6.051792753346225e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>349454.372704763</v>
+        <v>485669.0125986888</v>
       </c>
     </row>
     <row r="11">
@@ -7274,28 +7274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>269.0817535023056</v>
+        <v>379.1057218099552</v>
       </c>
       <c r="AB11" t="n">
-        <v>368.1695261910034</v>
+        <v>518.7091735444392</v>
       </c>
       <c r="AC11" t="n">
-        <v>333.0319433405087</v>
+        <v>469.2042980342545</v>
       </c>
       <c r="AD11" t="n">
-        <v>269081.7535023055</v>
+        <v>379105.7218099552</v>
       </c>
       <c r="AE11" t="n">
-        <v>368169.5261910034</v>
+        <v>518709.1735444391</v>
       </c>
       <c r="AF11" t="n">
         <v>6.214686662507025e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>333031.9433405087</v>
+        <v>469204.2980342545</v>
       </c>
     </row>
     <row r="12">
@@ -7380,28 +7380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>268.0360178958038</v>
+        <v>378.0599862034534</v>
       </c>
       <c r="AB12" t="n">
-        <v>366.7387045995887</v>
+        <v>517.2783519530245</v>
       </c>
       <c r="AC12" t="n">
-        <v>331.737677353608</v>
+        <v>467.9100320473539</v>
       </c>
       <c r="AD12" t="n">
-        <v>268036.0178958038</v>
+        <v>378059.9862034534</v>
       </c>
       <c r="AE12" t="n">
-        <v>366738.7045995888</v>
+        <v>517278.3519530246</v>
       </c>
       <c r="AF12" t="n">
         <v>6.26883110356644e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>331737.677353608</v>
+        <v>467910.0320473539</v>
       </c>
     </row>
     <row r="13">
@@ -7486,28 +7486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>255.8425766593629</v>
+        <v>365.9338647747202</v>
       </c>
       <c r="AB13" t="n">
-        <v>350.0551003630632</v>
+        <v>500.6868576475103</v>
       </c>
       <c r="AC13" t="n">
-        <v>316.646332889936</v>
+        <v>452.9020066720494</v>
       </c>
       <c r="AD13" t="n">
-        <v>255842.5766593629</v>
+        <v>365933.8647747202</v>
       </c>
       <c r="AE13" t="n">
-        <v>350055.1003630632</v>
+        <v>500686.8576475103</v>
       </c>
       <c r="AF13" t="n">
         <v>6.39457107680178e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>316646.332889936</v>
+        <v>452902.0066720493</v>
       </c>
     </row>
     <row r="14">
@@ -7592,28 +7592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>254.4542152227187</v>
+        <v>364.5455033380759</v>
       </c>
       <c r="AB14" t="n">
-        <v>348.1554829952638</v>
+        <v>498.7872402797099</v>
       </c>
       <c r="AC14" t="n">
-        <v>314.9280123375891</v>
+        <v>451.1836861197021</v>
       </c>
       <c r="AD14" t="n">
-        <v>254454.2152227187</v>
+        <v>364545.5033380759</v>
       </c>
       <c r="AE14" t="n">
-        <v>348155.4829952638</v>
+        <v>498787.2402797099</v>
       </c>
       <c r="AF14" t="n">
         <v>6.461663101592796e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH14" t="n">
-        <v>314928.0123375891</v>
+        <v>451183.6861197021</v>
       </c>
     </row>
     <row r="15">
@@ -7698,28 +7698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>253.2733527347715</v>
+        <v>353.3200815944656</v>
       </c>
       <c r="AB15" t="n">
-        <v>346.539774843279</v>
+        <v>483.4281230194466</v>
       </c>
       <c r="AC15" t="n">
-        <v>313.4665051039686</v>
+        <v>437.2904214541018</v>
       </c>
       <c r="AD15" t="n">
-        <v>253273.3527347715</v>
+        <v>353320.0815944656</v>
       </c>
       <c r="AE15" t="n">
-        <v>346539.774843279</v>
+        <v>483428.1230194466</v>
       </c>
       <c r="AF15" t="n">
         <v>6.519748111614004e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>313466.5051039686</v>
+        <v>437290.4214541017</v>
       </c>
     </row>
     <row r="16">
@@ -7804,28 +7804,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>252.9031463795681</v>
+        <v>352.9498752392623</v>
       </c>
       <c r="AB16" t="n">
-        <v>346.0332421757383</v>
+        <v>482.9215903519055</v>
       </c>
       <c r="AC16" t="n">
-        <v>313.0083152032947</v>
+        <v>436.8322315534277</v>
       </c>
       <c r="AD16" t="n">
-        <v>252903.1463795681</v>
+        <v>352949.8752392622</v>
       </c>
       <c r="AE16" t="n">
-        <v>346033.2421757383</v>
+        <v>482921.5903519056</v>
       </c>
       <c r="AF16" t="n">
         <v>6.518110472564948e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>313008.3152032947</v>
+        <v>436832.2315534278</v>
       </c>
     </row>
     <row r="17">
@@ -7910,28 +7910,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>252.8993375120641</v>
+        <v>362.8891404009361</v>
       </c>
       <c r="AB17" t="n">
-        <v>346.028030715184</v>
+        <v>496.5209314355398</v>
       </c>
       <c r="AC17" t="n">
-        <v>313.0036011172214</v>
+        <v>449.133670610835</v>
       </c>
       <c r="AD17" t="n">
-        <v>252899.3375120641</v>
+        <v>362889.1404009361</v>
       </c>
       <c r="AE17" t="n">
-        <v>346028.030715184</v>
+        <v>496520.9314355397</v>
       </c>
       <c r="AF17" t="n">
         <v>6.5050093601725e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>313003.6011172213</v>
+        <v>449133.670610835</v>
       </c>
     </row>
     <row r="18">
@@ -8016,28 +8016,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>252.9519354964168</v>
+        <v>362.9417383852888</v>
       </c>
       <c r="AB18" t="n">
-        <v>346.0999975978346</v>
+        <v>496.5928983181904</v>
       </c>
       <c r="AC18" t="n">
-        <v>313.068699581598</v>
+        <v>449.1987690752117</v>
       </c>
       <c r="AD18" t="n">
-        <v>252951.9354964168</v>
+        <v>362941.7383852888</v>
       </c>
       <c r="AE18" t="n">
-        <v>346099.9975978346</v>
+        <v>496592.8983181904</v>
       </c>
       <c r="AF18" t="n">
         <v>6.502706430259765e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>313068.699581598</v>
+        <v>449198.7690752117</v>
       </c>
     </row>
   </sheetData>
@@ -8313,28 +8313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.2035714720949</v>
+        <v>395.4832918351489</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.3362029114987</v>
+        <v>541.1176873803054</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.1827126687322</v>
+        <v>489.4741747601724</v>
       </c>
       <c r="AD2" t="n">
-        <v>269203.5714720949</v>
+        <v>395483.2918351489</v>
       </c>
       <c r="AE2" t="n">
-        <v>368336.2029114987</v>
+        <v>541117.6873803054</v>
       </c>
       <c r="AF2" t="n">
         <v>1.505244016610602e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>333182.7126687322</v>
+        <v>489474.1747601724</v>
       </c>
     </row>
   </sheetData>
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.3591414342799</v>
+        <v>308.6887348129426</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.2956341681344</v>
+        <v>422.3615453569116</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.303910486222</v>
+        <v>382.0519522561992</v>
       </c>
       <c r="AD2" t="n">
-        <v>214359.1414342799</v>
+        <v>308688.7348129426</v>
       </c>
       <c r="AE2" t="n">
-        <v>293295.6341681344</v>
+        <v>422361.5453569116</v>
       </c>
       <c r="AF2" t="n">
         <v>1.128994459407362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>265303.910486222</v>
+        <v>382051.9522561992</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.2427909102221</v>
+        <v>429.7835042799293</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.5419205342347</v>
+        <v>588.0487512658293</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.0740600481773</v>
+        <v>531.9262037766237</v>
       </c>
       <c r="AD2" t="n">
-        <v>302242.7909102222</v>
+        <v>429783.5042799293</v>
       </c>
       <c r="AE2" t="n">
-        <v>413541.9205342347</v>
+        <v>588048.7512658293</v>
       </c>
       <c r="AF2" t="n">
         <v>6.169990270264601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>374074.0600481773</v>
+        <v>531926.2037766237</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.0921814383336</v>
+        <v>393.0070014088998</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.0757000233073</v>
+        <v>537.7295175728879</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.8474226877656</v>
+        <v>486.4093671238487</v>
       </c>
       <c r="AD3" t="n">
-        <v>285092.1814383336</v>
+        <v>393007.0014088998</v>
       </c>
       <c r="AE3" t="n">
-        <v>390075.7000233073</v>
+        <v>537729.5175728878</v>
       </c>
       <c r="AF3" t="n">
         <v>6.674070580253845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>352847.4226877656</v>
+        <v>486409.3671238486</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.0583503495991</v>
+        <v>368.006324709089</v>
       </c>
       <c r="AB4" t="n">
-        <v>355.8233079130188</v>
+        <v>503.5224887601931</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.8640308069487</v>
+        <v>455.467009131171</v>
       </c>
       <c r="AD4" t="n">
-        <v>260058.3503495991</v>
+        <v>368006.324709089</v>
       </c>
       <c r="AE4" t="n">
-        <v>355823.3079130188</v>
+        <v>503522.4887601931</v>
       </c>
       <c r="AF4" t="n">
         <v>7.081235097935661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>321864.0308069487</v>
+        <v>455467.009131171</v>
       </c>
     </row>
     <row r="5">
@@ -9225,28 +9225,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.8883012110166</v>
+        <v>354.8021101517288</v>
       </c>
       <c r="AB5" t="n">
-        <v>337.8034656598894</v>
+        <v>485.4558998739794</v>
       </c>
       <c r="AC5" t="n">
-        <v>305.563977007552</v>
+        <v>439.1246701316408</v>
       </c>
       <c r="AD5" t="n">
-        <v>246888.3012110166</v>
+        <v>354802.1101517287</v>
       </c>
       <c r="AE5" t="n">
-        <v>337803.4656598894</v>
+        <v>485455.8998739794</v>
       </c>
       <c r="AF5" t="n">
         <v>7.353958501288577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>305563.9770075519</v>
+        <v>439124.6701316407</v>
       </c>
     </row>
     <row r="6">
@@ -9331,28 +9331,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.9299808031366</v>
+        <v>340.8096243250677</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.7050758802019</v>
+        <v>466.3107634610343</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.2883107436734</v>
+        <v>421.8067186675794</v>
       </c>
       <c r="AD6" t="n">
-        <v>232929.9808031366</v>
+        <v>340809.6243250677</v>
       </c>
       <c r="AE6" t="n">
-        <v>318705.0758802019</v>
+        <v>466310.7634610343</v>
       </c>
       <c r="AF6" t="n">
         <v>7.703269018562483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>288288.3107436734</v>
+        <v>421806.7186675795</v>
       </c>
     </row>
     <row r="7">
@@ -9437,28 +9437,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.5411812106479</v>
+        <v>340.420824732579</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.1731031251318</v>
+        <v>465.7787907059638</v>
       </c>
       <c r="AC7" t="n">
-        <v>287.8071087217184</v>
+        <v>421.3255166456245</v>
       </c>
       <c r="AD7" t="n">
-        <v>232541.1812106479</v>
+        <v>340420.8247325791</v>
       </c>
       <c r="AE7" t="n">
-        <v>318173.1031251318</v>
+        <v>465778.7907059639</v>
       </c>
       <c r="AF7" t="n">
         <v>7.727084301672174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>287807.1087217184</v>
+        <v>421325.5166456245</v>
       </c>
     </row>
     <row r="8">
@@ -9543,28 +9543,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.8221299710584</v>
+        <v>328.9566521160521</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.8210213799383</v>
+        <v>450.0930039684308</v>
       </c>
       <c r="AC8" t="n">
-        <v>285.679506357118</v>
+        <v>407.1367593791816</v>
       </c>
       <c r="AD8" t="n">
-        <v>230822.1299710584</v>
+        <v>328956.652116052</v>
       </c>
       <c r="AE8" t="n">
-        <v>315821.0213799383</v>
+        <v>450093.0039684307</v>
       </c>
       <c r="AF8" t="n">
         <v>7.863593740836904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>285679.506357118</v>
+        <v>407136.7593791815</v>
       </c>
     </row>
     <row r="9">
@@ -9649,28 +9649,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>230.1411827965241</v>
+        <v>328.1742197150326</v>
       </c>
       <c r="AB9" t="n">
-        <v>314.8893194144719</v>
+        <v>449.0224454388745</v>
       </c>
       <c r="AC9" t="n">
-        <v>284.8367247195835</v>
+        <v>406.1683734531479</v>
       </c>
       <c r="AD9" t="n">
-        <v>230141.1827965241</v>
+        <v>328174.2197150326</v>
       </c>
       <c r="AE9" t="n">
-        <v>314889.3194144719</v>
+        <v>449022.4454388745</v>
       </c>
       <c r="AF9" t="n">
         <v>7.931316605461487e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>284836.7247195835</v>
+        <v>406168.3734531479</v>
       </c>
     </row>
   </sheetData>
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.7053261467642</v>
+        <v>315.1533204115036</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.6105199487753</v>
+        <v>431.206676570251</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.9206738344675</v>
+        <v>390.0529165607572</v>
       </c>
       <c r="AD2" t="n">
-        <v>219705.3261467642</v>
+        <v>315153.3204115035</v>
       </c>
       <c r="AE2" t="n">
-        <v>300610.5199487753</v>
+        <v>431206.676570251</v>
       </c>
       <c r="AF2" t="n">
         <v>9.972566957699332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>271920.6738344675</v>
+        <v>390052.9165607572</v>
       </c>
     </row>
     <row r="3">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.682040066585</v>
+        <v>304.1973541390287</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.5279736208222</v>
+        <v>416.2162401731317</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.2775845595627</v>
+        <v>376.4931463741692</v>
       </c>
       <c r="AD3" t="n">
-        <v>208682.040066585</v>
+        <v>304197.3541390287</v>
       </c>
       <c r="AE3" t="n">
-        <v>285527.9736208222</v>
+        <v>416216.2401731317</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016571577969391e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>258277.5845595627</v>
+        <v>376493.1463741692</v>
       </c>
     </row>
     <row r="4">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.7408226939449</v>
+        <v>304.2561367663886</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.6084026048824</v>
+        <v>416.296669157192</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.3503375142671</v>
+        <v>376.5658993288736</v>
       </c>
       <c r="AD4" t="n">
-        <v>208740.8226939449</v>
+        <v>304256.1367663886</v>
       </c>
       <c r="AE4" t="n">
-        <v>285608.4026048824</v>
+        <v>416296.669157192</v>
       </c>
       <c r="AF4" t="n">
         <v>1.016104999143254e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>258350.3375142671</v>
+        <v>376565.8993288736</v>
       </c>
     </row>
   </sheetData>
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.55541499539</v>
+        <v>530.8044926021372</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.0609518335871</v>
+        <v>726.2701242197384</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.2361873077366</v>
+        <v>656.9559228907272</v>
       </c>
       <c r="AD2" t="n">
-        <v>381555.41499539</v>
+        <v>530804.4926021372</v>
       </c>
       <c r="AE2" t="n">
-        <v>522060.951833587</v>
+        <v>726270.1242197384</v>
       </c>
       <c r="AF2" t="n">
         <v>4.696731390058932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>472236.1873077366</v>
+        <v>656955.9228907272</v>
       </c>
     </row>
     <row r="3">
@@ -10561,28 +10561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.0504385982497</v>
+        <v>477.3154122790996</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.5355238229188</v>
+        <v>653.0840047500787</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.3917826019435</v>
+        <v>590.754583945888</v>
       </c>
       <c r="AD3" t="n">
-        <v>338050.4385982497</v>
+        <v>477315.4122790996</v>
       </c>
       <c r="AE3" t="n">
-        <v>462535.5238229188</v>
+        <v>653084.0047500788</v>
       </c>
       <c r="AF3" t="n">
         <v>5.226279751135531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>418391.7826019435</v>
+        <v>590754.5839458881</v>
       </c>
     </row>
     <row r="4">
@@ -10667,28 +10667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.1674397465213</v>
+        <v>439.4824749202547</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.3847746828915</v>
+        <v>601.3193107843082</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.8820874149277</v>
+        <v>543.9302397200064</v>
       </c>
       <c r="AD4" t="n">
-        <v>310167.4397465213</v>
+        <v>439482.4749202547</v>
       </c>
       <c r="AE4" t="n">
-        <v>424384.7746828916</v>
+        <v>601319.3107843082</v>
       </c>
       <c r="AF4" t="n">
         <v>5.616405830194283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>383882.0874149277</v>
+        <v>543930.2397200064</v>
       </c>
     </row>
     <row r="5">
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.5857121850954</v>
+        <v>413.8834890440079</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.0651676160441</v>
+        <v>566.2936489608759</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.5971937242838</v>
+        <v>512.2473779021774</v>
       </c>
       <c r="AD5" t="n">
-        <v>294585.7121850954</v>
+        <v>413883.489044008</v>
       </c>
       <c r="AE5" t="n">
-        <v>403065.1676160441</v>
+        <v>566293.6489608759</v>
       </c>
       <c r="AF5" t="n">
         <v>5.934017371152597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>364597.1937242838</v>
+        <v>512247.3779021773</v>
       </c>
     </row>
     <row r="6">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.2699469423509</v>
+        <v>400.6350436089678</v>
       </c>
       <c r="AB6" t="n">
-        <v>384.8459501608186</v>
+        <v>548.166541436492</v>
       </c>
       <c r="AC6" t="n">
-        <v>348.1167928121528</v>
+        <v>495.8502960783654</v>
       </c>
       <c r="AD6" t="n">
-        <v>281269.9469423509</v>
+        <v>400635.0436089678</v>
       </c>
       <c r="AE6" t="n">
-        <v>384845.9501608186</v>
+        <v>548166.541436492</v>
       </c>
       <c r="AF6" t="n">
         <v>6.129881381279547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.68229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>348116.7928121528</v>
+        <v>495850.2960783654</v>
       </c>
     </row>
     <row r="7">
@@ -10985,28 +10985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>268.0892852146376</v>
+        <v>387.4202164624738</v>
       </c>
       <c r="AB7" t="n">
-        <v>366.8115872952055</v>
+        <v>530.085431937631</v>
       </c>
       <c r="AC7" t="n">
-        <v>331.8036042270465</v>
+        <v>479.4948222930791</v>
       </c>
       <c r="AD7" t="n">
-        <v>268089.2852146376</v>
+        <v>387420.2164624738</v>
       </c>
       <c r="AE7" t="n">
-        <v>366811.5872952055</v>
+        <v>530085.431937631</v>
       </c>
       <c r="AF7" t="n">
         <v>6.341177424919772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>331803.6042270465</v>
+        <v>479494.8222930791</v>
       </c>
     </row>
     <row r="8">
@@ -11091,28 +11091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>264.6567975073154</v>
+        <v>374.0046358591114</v>
       </c>
       <c r="AB8" t="n">
-        <v>362.115106183377</v>
+        <v>511.7296427024654</v>
       </c>
       <c r="AC8" t="n">
-        <v>327.5553486809783</v>
+        <v>462.8908838200057</v>
       </c>
       <c r="AD8" t="n">
-        <v>264656.7975073154</v>
+        <v>374004.6358591114</v>
       </c>
       <c r="AE8" t="n">
-        <v>362115.106183377</v>
+        <v>511729.6427024654</v>
       </c>
       <c r="AF8" t="n">
         <v>6.552580264639673e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>327555.3486809783</v>
+        <v>462890.8838200057</v>
       </c>
     </row>
     <row r="9">
@@ -11197,28 +11197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.3901198414674</v>
+        <v>374.7379581932634</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.1184701528618</v>
+        <v>512.7330066719502</v>
       </c>
       <c r="AC9" t="n">
-        <v>328.4629530014456</v>
+        <v>463.798488140473</v>
       </c>
       <c r="AD9" t="n">
-        <v>265390.1198414674</v>
+        <v>374737.9581932634</v>
       </c>
       <c r="AE9" t="n">
-        <v>363118.4701528618</v>
+        <v>512733.0066719502</v>
       </c>
       <c r="AF9" t="n">
         <v>6.516803577947999e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>328462.9530014456</v>
+        <v>463798.488140473</v>
       </c>
     </row>
     <row r="10">
@@ -11303,28 +11303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.9103355525305</v>
+        <v>362.3254937120341</v>
       </c>
       <c r="AB10" t="n">
-        <v>346.0430787193495</v>
+        <v>495.7497251694471</v>
       </c>
       <c r="AC10" t="n">
-        <v>313.0172129609894</v>
+        <v>448.4360671883836</v>
       </c>
       <c r="AD10" t="n">
-        <v>252910.3355525305</v>
+        <v>362325.4937120341</v>
       </c>
       <c r="AE10" t="n">
-        <v>346043.0787193495</v>
+        <v>495749.7251694471</v>
       </c>
       <c r="AF10" t="n">
         <v>6.657667607041482e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>313017.2129609893</v>
+        <v>448436.0671883836</v>
       </c>
     </row>
     <row r="11">
@@ -11409,28 +11409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.017838394778</v>
+        <v>360.3315113277964</v>
       </c>
       <c r="AB11" t="n">
-        <v>343.4536806170318</v>
+        <v>493.0214705030388</v>
       </c>
       <c r="AC11" t="n">
-        <v>310.6749433793129</v>
+        <v>445.9681933182077</v>
       </c>
       <c r="AD11" t="n">
-        <v>251017.8383947781</v>
+        <v>360331.5113277964</v>
       </c>
       <c r="AE11" t="n">
-        <v>343453.6806170318</v>
+        <v>493021.4705030388</v>
       </c>
       <c r="AF11" t="n">
         <v>6.78790542620714e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>310674.9433793129</v>
+        <v>445968.1933182077</v>
       </c>
     </row>
     <row r="12">
@@ -11515,28 +11515,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>249.4590446198288</v>
+        <v>348.8911098832923</v>
       </c>
       <c r="AB12" t="n">
-        <v>341.3208702050194</v>
+        <v>477.3682085317774</v>
       </c>
       <c r="AC12" t="n">
-        <v>308.7456853996041</v>
+        <v>431.8088566999924</v>
       </c>
       <c r="AD12" t="n">
-        <v>249459.0446198288</v>
+        <v>348891.1098832923</v>
       </c>
       <c r="AE12" t="n">
-        <v>341320.8702050194</v>
+        <v>477368.2085317774</v>
       </c>
       <c r="AF12" t="n">
         <v>6.856415111319701e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>308745.6853996041</v>
+        <v>431808.8566999924</v>
       </c>
     </row>
     <row r="13">
@@ -11621,28 +11621,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>248.702204796293</v>
+        <v>348.1342700597565</v>
       </c>
       <c r="AB13" t="n">
-        <v>340.2853285690417</v>
+        <v>476.3326668957992</v>
       </c>
       <c r="AC13" t="n">
-        <v>307.8089744039721</v>
+        <v>430.8721457043602</v>
       </c>
       <c r="AD13" t="n">
-        <v>248702.204796293</v>
+        <v>348134.2700597565</v>
       </c>
       <c r="AE13" t="n">
-        <v>340285.3285690417</v>
+        <v>476332.6668957992</v>
       </c>
       <c r="AF13" t="n">
         <v>6.909118976640121e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>307808.974403972</v>
+        <v>430872.1457043602</v>
       </c>
     </row>
     <row r="14">
@@ -11727,28 +11727,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>248.5582931074507</v>
+        <v>347.9903583709141</v>
       </c>
       <c r="AB14" t="n">
-        <v>340.088422247432</v>
+        <v>476.1357605741895</v>
       </c>
       <c r="AC14" t="n">
-        <v>307.630860545337</v>
+        <v>430.6940318457251</v>
       </c>
       <c r="AD14" t="n">
-        <v>248558.2931074506</v>
+        <v>347990.3583709141</v>
       </c>
       <c r="AE14" t="n">
-        <v>340088.4222474321</v>
+        <v>476135.7605741895</v>
       </c>
       <c r="AF14" t="n">
         <v>6.900468494186314e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH14" t="n">
-        <v>307630.860545337</v>
+        <v>430694.0318457251</v>
       </c>
     </row>
   </sheetData>
@@ -12024,28 +12024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3294186265565</v>
+        <v>359.8154592777489</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.6164866698718</v>
+        <v>492.3153853215539</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.5358956614971</v>
+        <v>445.3294959154472</v>
       </c>
       <c r="AD2" t="n">
-        <v>253329.4186265565</v>
+        <v>359815.4592777489</v>
       </c>
       <c r="AE2" t="n">
-        <v>346616.4866698718</v>
+        <v>492315.385321554</v>
       </c>
       <c r="AF2" t="n">
         <v>7.905865327403221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>313535.8956614971</v>
+        <v>445329.4959154472</v>
       </c>
     </row>
     <row r="3">
@@ -12130,28 +12130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.5264522320031</v>
+        <v>335.2646239253828</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.3624149880675</v>
+        <v>458.7238492860329</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.2148441542296</v>
+        <v>414.9438889331391</v>
       </c>
       <c r="AD3" t="n">
-        <v>238526.4522320031</v>
+        <v>335264.6239253828</v>
       </c>
       <c r="AE3" t="n">
-        <v>326362.4149880675</v>
+        <v>458723.8492860329</v>
       </c>
       <c r="AF3" t="n">
         <v>8.449194082136757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>295214.8441542296</v>
+        <v>414943.8889331392</v>
       </c>
     </row>
     <row r="4">
@@ -12236,28 +12236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.2949348545584</v>
+        <v>321.9989411291571</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.2584691789078</v>
+        <v>440.5731568436162</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.8387135240429</v>
+        <v>398.5254731027699</v>
       </c>
       <c r="AD4" t="n">
-        <v>225294.9348545584</v>
+        <v>321998.9411291571</v>
       </c>
       <c r="AE4" t="n">
-        <v>308258.4691789078</v>
+        <v>440573.1568436162</v>
       </c>
       <c r="AF4" t="n">
         <v>8.811039558192457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>278838.7135240429</v>
+        <v>398525.4731027699</v>
       </c>
     </row>
     <row r="5">
@@ -12342,28 +12342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.6926202926947</v>
+        <v>309.4639463749975</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.0154264204947</v>
+        <v>423.4222240160357</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.2413225657247</v>
+        <v>383.0114012327683</v>
       </c>
       <c r="AD5" t="n">
-        <v>212692.6202926947</v>
+        <v>309463.9463749976</v>
       </c>
       <c r="AE5" t="n">
-        <v>291015.4264204947</v>
+        <v>423422.2240160357</v>
       </c>
       <c r="AF5" t="n">
         <v>9.14578124517236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>263241.3225657247</v>
+        <v>383011.4012327683</v>
       </c>
     </row>
     <row r="6">
@@ -12448,28 +12448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.751913365152</v>
+        <v>309.523239447455</v>
       </c>
       <c r="AB6" t="n">
-        <v>291.0965538180566</v>
+        <v>423.5033514135977</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.3147072783264</v>
+        <v>383.0847859453698</v>
       </c>
       <c r="AD6" t="n">
-        <v>212751.913365152</v>
+        <v>309523.239447455</v>
       </c>
       <c r="AE6" t="n">
-        <v>291096.5538180567</v>
+        <v>423503.3514135976</v>
       </c>
       <c r="AF6" t="n">
         <v>9.141494757848937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>263314.7072783263</v>
+        <v>383084.7859453699</v>
       </c>
     </row>
   </sheetData>
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.4290896764271</v>
+        <v>469.3511925363037</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.475902114783</v>
+        <v>642.1870079414081</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.1967984743732</v>
+        <v>580.8975812186059</v>
       </c>
       <c r="AD2" t="n">
-        <v>331429.0896764271</v>
+        <v>469351.1925363037</v>
       </c>
       <c r="AE2" t="n">
-        <v>453475.9021147829</v>
+        <v>642187.0079414081</v>
       </c>
       <c r="AF2" t="n">
         <v>5.601048611840368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>410196.7984743732</v>
+        <v>580897.5812186059</v>
       </c>
     </row>
     <row r="3">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.7580099522791</v>
+        <v>420.025907434697</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.8786218405507</v>
+        <v>574.697976787391</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.4740656508729</v>
+        <v>519.849608476478</v>
       </c>
       <c r="AD3" t="n">
-        <v>301758.0099522791</v>
+        <v>420025.907434697</v>
       </c>
       <c r="AE3" t="n">
-        <v>412878.6218405507</v>
+        <v>574697.976787391</v>
       </c>
       <c r="AF3" t="n">
         <v>6.158458990560078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>373474.0656508729</v>
+        <v>519849.608476478</v>
       </c>
     </row>
     <row r="4">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.5307435664777</v>
+        <v>394.8317954378192</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.3615630230521</v>
+        <v>540.2262812674862</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.2512664819201</v>
+        <v>488.6678431956644</v>
       </c>
       <c r="AD4" t="n">
-        <v>276530.7435664777</v>
+        <v>394831.7954378191</v>
       </c>
       <c r="AE4" t="n">
-        <v>378361.5630230521</v>
+        <v>540226.2812674863</v>
       </c>
       <c r="AF4" t="n">
         <v>6.521786879724544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>342251.2664819201</v>
+        <v>488667.8431956643</v>
       </c>
     </row>
     <row r="5">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.4720442467504</v>
+        <v>370.9459934293624</v>
       </c>
       <c r="AB5" t="n">
-        <v>359.1258303877606</v>
+        <v>507.5446731923023</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.8513651718205</v>
+        <v>459.1053219262511</v>
       </c>
       <c r="AD5" t="n">
-        <v>262472.0442467504</v>
+        <v>370945.9934293624</v>
       </c>
       <c r="AE5" t="n">
-        <v>359125.8303877607</v>
+        <v>507544.6731923023</v>
       </c>
       <c r="AF5" t="n">
         <v>6.827009650207958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>324851.3651718205</v>
+        <v>459105.3219262511</v>
       </c>
     </row>
     <row r="6">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.5712498329806</v>
+        <v>358.1507765191589</v>
       </c>
       <c r="AB6" t="n">
-        <v>355.1568354968232</v>
+        <v>490.0376929306311</v>
       </c>
       <c r="AC6" t="n">
-        <v>321.2611655827549</v>
+        <v>443.2691832895525</v>
       </c>
       <c r="AD6" t="n">
-        <v>259571.2498329806</v>
+        <v>358150.7765191589</v>
       </c>
       <c r="AE6" t="n">
-        <v>355156.8354968232</v>
+        <v>490037.692930631</v>
       </c>
       <c r="AF6" t="n">
         <v>7.050714357130011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>321261.1655827549</v>
+        <v>443269.1832895525</v>
       </c>
     </row>
     <row r="7">
@@ -13275,28 +13275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.1971138583936</v>
+        <v>344.7424751257942</v>
       </c>
       <c r="AB7" t="n">
-        <v>336.8577526309973</v>
+        <v>471.6918634317204</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.7085215028204</v>
+        <v>426.6742540094845</v>
       </c>
       <c r="AD7" t="n">
-        <v>246197.1138583936</v>
+        <v>344742.4751257942</v>
       </c>
       <c r="AE7" t="n">
-        <v>336857.7526309973</v>
+        <v>471691.8634317204</v>
       </c>
       <c r="AF7" t="n">
         <v>7.314010296878862e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>304708.5215028204</v>
+        <v>426674.2540094844</v>
       </c>
     </row>
     <row r="8">
@@ -13381,28 +13381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>245.3630077154372</v>
+        <v>343.9083689828378</v>
       </c>
       <c r="AB8" t="n">
-        <v>335.7164918080388</v>
+        <v>470.5506026087614</v>
       </c>
       <c r="AC8" t="n">
-        <v>303.6761810110352</v>
+        <v>425.641913517699</v>
       </c>
       <c r="AD8" t="n">
-        <v>245363.0077154372</v>
+        <v>343908.3689828378</v>
       </c>
       <c r="AE8" t="n">
-        <v>335716.4918080388</v>
+        <v>470550.6026087615</v>
       </c>
       <c r="AF8" t="n">
         <v>7.38618596880915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>303676.1810110352</v>
+        <v>425641.913517699</v>
       </c>
     </row>
     <row r="9">
@@ -13487,28 +13487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>233.5635092388435</v>
+        <v>332.1761903139484</v>
       </c>
       <c r="AB9" t="n">
-        <v>319.5718974352378</v>
+        <v>454.4981181667935</v>
       </c>
       <c r="AC9" t="n">
-        <v>289.0724040660885</v>
+        <v>411.1214556610693</v>
       </c>
       <c r="AD9" t="n">
-        <v>233563.5092388435</v>
+        <v>332176.1903139484</v>
       </c>
       <c r="AE9" t="n">
-        <v>319571.8974352378</v>
+        <v>454498.1181667935</v>
       </c>
       <c r="AF9" t="n">
         <v>7.515840135591578e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>289072.4040660885</v>
+        <v>411121.4556610693</v>
       </c>
     </row>
     <row r="10">
@@ -13593,28 +13593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>232.7956817909859</v>
+        <v>331.4083628660907</v>
       </c>
       <c r="AB10" t="n">
-        <v>318.5213220469232</v>
+        <v>453.4475427784784</v>
       </c>
       <c r="AC10" t="n">
-        <v>288.1220941183425</v>
+        <v>410.1711457133231</v>
       </c>
       <c r="AD10" t="n">
-        <v>232795.6817909859</v>
+        <v>331408.3628660907</v>
       </c>
       <c r="AE10" t="n">
-        <v>318521.3220469232</v>
+        <v>453447.5427784784</v>
       </c>
       <c r="AF10" t="n">
         <v>7.569672819075495e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>288122.0941183426</v>
+        <v>410171.1457133231</v>
       </c>
     </row>
     <row r="11">
@@ -13699,28 +13699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>232.8830646491236</v>
+        <v>331.4957457242285</v>
       </c>
       <c r="AB11" t="n">
-        <v>318.6408831284867</v>
+        <v>453.5671038600419</v>
       </c>
       <c r="AC11" t="n">
-        <v>288.2302444580868</v>
+        <v>410.2792960530673</v>
       </c>
       <c r="AD11" t="n">
-        <v>232883.0646491236</v>
+        <v>331495.7457242284</v>
       </c>
       <c r="AE11" t="n">
-        <v>318640.8831284867</v>
+        <v>453567.1038600419</v>
       </c>
       <c r="AF11" t="n">
         <v>7.5668814947467e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>288230.2444580867</v>
+        <v>410279.2960530673</v>
       </c>
     </row>
   </sheetData>
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.287603021783</v>
+        <v>304.7409351925656</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.0930198054471</v>
+        <v>416.9599917516845</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.502387739902</v>
+        <v>377.1659153459269</v>
       </c>
       <c r="AD2" t="n">
-        <v>211287.603021783</v>
+        <v>304740.9351925656</v>
       </c>
       <c r="AE2" t="n">
-        <v>289093.0198054471</v>
+        <v>416959.9917516845</v>
       </c>
       <c r="AF2" t="n">
         <v>1.232168073987275e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>261502.387739902</v>
+        <v>377165.9153459269</v>
       </c>
     </row>
   </sheetData>
@@ -14293,28 +14293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.6737689940778</v>
+        <v>300.9837457614668</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.0943655927236</v>
+        <v>411.8192394165558</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9309735081844</v>
+        <v>372.5157891985716</v>
       </c>
       <c r="AD2" t="n">
-        <v>215673.7689940777</v>
+        <v>300983.7457614667</v>
       </c>
       <c r="AE2" t="n">
-        <v>295094.3655927237</v>
+        <v>411819.2394165558</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087391129115312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>266930.9735081844</v>
+        <v>372515.7891985716</v>
       </c>
     </row>
     <row r="3">
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.7267547373728</v>
+        <v>301.0367315047618</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.1668630242659</v>
+        <v>411.891736848098</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.9965518866111</v>
+        <v>372.5813675769983</v>
       </c>
       <c r="AD3" t="n">
-        <v>215726.7547373728</v>
+        <v>301036.7315047618</v>
       </c>
       <c r="AE3" t="n">
-        <v>295166.8630242659</v>
+        <v>411891.7368480981</v>
       </c>
       <c r="AF3" t="n">
         <v>1.086777346782417e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>266996.5518866111</v>
+        <v>372581.3675769983</v>
       </c>
     </row>
   </sheetData>
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.0497956184668</v>
+        <v>556.4479128438162</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.2610469659103</v>
+        <v>761.3565831022612</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.4129751151511</v>
+        <v>688.6937793816563</v>
       </c>
       <c r="AD2" t="n">
-        <v>397049.7956184668</v>
+        <v>556447.9128438162</v>
       </c>
       <c r="AE2" t="n">
-        <v>543261.0469659102</v>
+        <v>761356.5831022612</v>
       </c>
       <c r="AF2" t="n">
         <v>4.508623892877149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>491412.9751151511</v>
+        <v>688693.7793816563</v>
       </c>
     </row>
     <row r="3">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.9076898641072</v>
+        <v>491.3982515244106</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.4956263436448</v>
+        <v>672.3527666965325</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.5423595487624</v>
+        <v>608.1843622960495</v>
       </c>
       <c r="AD3" t="n">
-        <v>351907.6898641072</v>
+        <v>491398.2515244106</v>
       </c>
       <c r="AE3" t="n">
-        <v>481495.6263436448</v>
+        <v>672352.7666965325</v>
       </c>
       <c r="AF3" t="n">
         <v>5.0526139235086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>435542.3595487624</v>
+        <v>608184.3622960495</v>
       </c>
     </row>
     <row r="4">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.4674056941421</v>
+        <v>452.9871068625321</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.582374845513</v>
+        <v>619.7969439900452</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.3429341585208</v>
+        <v>560.6443935461089</v>
       </c>
       <c r="AD4" t="n">
-        <v>323467.4056941422</v>
+        <v>452987.1068625321</v>
       </c>
       <c r="AE4" t="n">
-        <v>442582.374845513</v>
+        <v>619796.9439900452</v>
       </c>
       <c r="AF4" t="n">
         <v>5.437374525557077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>400342.9341585208</v>
+        <v>560644.3935461089</v>
       </c>
     </row>
     <row r="5">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.6234647724457</v>
+        <v>428.206470867703</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.2722400079929</v>
+        <v>585.8909845774173</v>
       </c>
       <c r="AC5" t="n">
-        <v>381.9711700844402</v>
+        <v>529.9743713125093</v>
       </c>
       <c r="AD5" t="n">
-        <v>308623.4647724457</v>
+        <v>428206.470867703</v>
       </c>
       <c r="AE5" t="n">
-        <v>422272.2400079929</v>
+        <v>585890.9845774173</v>
       </c>
       <c r="AF5" t="n">
         <v>5.691794316435688e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>381971.1700844403</v>
+        <v>529974.3713125093</v>
       </c>
     </row>
     <row r="6">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.4630294937762</v>
+        <v>414.0118701702526</v>
       </c>
       <c r="AB6" t="n">
-        <v>402.8973077454028</v>
+        <v>566.4693056815795</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.4453541641037</v>
+        <v>512.4062701919928</v>
       </c>
       <c r="AD6" t="n">
-        <v>294463.0294937762</v>
+        <v>414011.8701702526</v>
       </c>
       <c r="AE6" t="n">
-        <v>402897.3077454028</v>
+        <v>566469.3056815795</v>
       </c>
       <c r="AF6" t="n">
         <v>5.928481021579842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>364445.3541641037</v>
+        <v>512406.2701919927</v>
       </c>
     </row>
     <row r="7">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>281.1591133492415</v>
+        <v>390.7712589525853</v>
       </c>
       <c r="AB7" t="n">
-        <v>384.6943027490933</v>
+        <v>534.6704761101622</v>
       </c>
       <c r="AC7" t="n">
-        <v>347.9796184165639</v>
+        <v>483.642276284934</v>
       </c>
       <c r="AD7" t="n">
-        <v>281159.1133492414</v>
+        <v>390771.2589525853</v>
       </c>
       <c r="AE7" t="n">
-        <v>384694.3027490933</v>
+        <v>534670.4761101622</v>
       </c>
       <c r="AF7" t="n">
         <v>6.130543482174228e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>347979.618416564</v>
+        <v>483642.276284934</v>
       </c>
     </row>
     <row r="8">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>268.1596643457319</v>
+        <v>377.8391297567801</v>
       </c>
       <c r="AB8" t="n">
-        <v>366.9078831272767</v>
+        <v>516.9761664191872</v>
       </c>
       <c r="AC8" t="n">
-        <v>331.8907097200569</v>
+        <v>467.636686676746</v>
       </c>
       <c r="AD8" t="n">
-        <v>268159.6643457319</v>
+        <v>377839.1297567801</v>
       </c>
       <c r="AE8" t="n">
-        <v>366907.8831272767</v>
+        <v>516976.1664191872</v>
       </c>
       <c r="AF8" t="n">
         <v>6.310242258978872e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH8" t="n">
-        <v>331890.7097200569</v>
+        <v>467636.6866767459</v>
       </c>
     </row>
     <row r="9">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>267.0495720662636</v>
+        <v>376.6275522508266</v>
       </c>
       <c r="AB9" t="n">
-        <v>365.3890058966932</v>
+        <v>515.3184326245143</v>
       </c>
       <c r="AC9" t="n">
-        <v>330.5167920006027</v>
+        <v>466.1371646687927</v>
       </c>
       <c r="AD9" t="n">
-        <v>267049.5720662636</v>
+        <v>376627.5522508266</v>
       </c>
       <c r="AE9" t="n">
-        <v>365389.0058966932</v>
+        <v>515318.4326245144</v>
       </c>
       <c r="AF9" t="n">
         <v>6.386384024728891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>330516.7920006027</v>
+        <v>466137.1646687927</v>
       </c>
     </row>
     <row r="10">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>265.1102929191945</v>
+        <v>364.7857434494056</v>
       </c>
       <c r="AB10" t="n">
-        <v>362.7355986127156</v>
+        <v>499.115947398677</v>
       </c>
       <c r="AC10" t="n">
-        <v>328.1166221837274</v>
+        <v>451.4810218925783</v>
       </c>
       <c r="AD10" t="n">
-        <v>265110.2929191946</v>
+        <v>364785.7434494057</v>
       </c>
       <c r="AE10" t="n">
-        <v>362735.5986127156</v>
+        <v>499115.9473986769</v>
       </c>
       <c r="AF10" t="n">
         <v>6.508200325842434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>328116.6221837274</v>
+        <v>451481.0218925783</v>
       </c>
     </row>
     <row r="11">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>254.0109051345731</v>
+        <v>363.6562051268436</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.5489265752025</v>
+        <v>497.5704632340338</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.3793448109509</v>
+        <v>450.083036567508</v>
       </c>
       <c r="AD11" t="n">
-        <v>254010.9051345731</v>
+        <v>363656.2051268436</v>
       </c>
       <c r="AE11" t="n">
-        <v>347548.9265752025</v>
+        <v>497570.4632340337</v>
       </c>
       <c r="AF11" t="n">
         <v>6.562978196019195e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>314379.3448109509</v>
+        <v>450083.036567508</v>
       </c>
     </row>
     <row r="12">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>252.0050487101786</v>
+        <v>361.5488634759639</v>
       </c>
       <c r="AB12" t="n">
-        <v>344.8044253232073</v>
+        <v>494.6871054179479</v>
       </c>
       <c r="AC12" t="n">
-        <v>311.8967749065136</v>
+        <v>447.4748623745712</v>
       </c>
       <c r="AD12" t="n">
-        <v>252005.0487101786</v>
+        <v>361548.8634759639</v>
       </c>
       <c r="AE12" t="n">
-        <v>344804.4253232073</v>
+        <v>494687.1054179479</v>
       </c>
       <c r="AF12" t="n">
         <v>6.692108737242795e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH12" t="n">
-        <v>311896.7749065136</v>
+        <v>447474.8623745712</v>
       </c>
     </row>
     <row r="13">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>250.6553802688179</v>
+        <v>350.2966653802513</v>
       </c>
       <c r="AB13" t="n">
-        <v>342.9577494185693</v>
+        <v>479.291351571449</v>
       </c>
       <c r="AC13" t="n">
-        <v>310.2263431583877</v>
+        <v>433.5484576671059</v>
       </c>
       <c r="AD13" t="n">
-        <v>250655.3802688179</v>
+        <v>350296.6653802514</v>
       </c>
       <c r="AE13" t="n">
-        <v>342957.7494185693</v>
+        <v>479291.351571449</v>
       </c>
       <c r="AF13" t="n">
         <v>6.758989306882239e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>310226.3431583877</v>
+        <v>433548.4576671059</v>
       </c>
     </row>
     <row r="14">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>249.6695962500998</v>
+        <v>349.3108813615332</v>
       </c>
       <c r="AB14" t="n">
-        <v>341.6089562344384</v>
+        <v>477.9425583873174</v>
       </c>
       <c r="AC14" t="n">
-        <v>309.0062769027067</v>
+        <v>432.3283914114247</v>
       </c>
       <c r="AD14" t="n">
-        <v>249669.5962500998</v>
+        <v>349310.8813615332</v>
       </c>
       <c r="AE14" t="n">
-        <v>341608.9562344384</v>
+        <v>477942.5583873174</v>
       </c>
       <c r="AF14" t="n">
         <v>6.811714980193587e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>309006.2769027067</v>
+        <v>432328.3914114247</v>
       </c>
     </row>
     <row r="15">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>249.7331209098792</v>
+        <v>349.3744060213126</v>
       </c>
       <c r="AB15" t="n">
-        <v>341.6958734764587</v>
+        <v>478.0294756293377</v>
       </c>
       <c r="AC15" t="n">
-        <v>309.0848988851377</v>
+        <v>432.4070133938558</v>
       </c>
       <c r="AD15" t="n">
-        <v>249733.1209098792</v>
+        <v>349374.4060213126</v>
       </c>
       <c r="AE15" t="n">
-        <v>341695.8734764587</v>
+        <v>478029.4756293377</v>
       </c>
       <c r="AF15" t="n">
         <v>6.807031761705852e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>309084.8988851377</v>
+        <v>432407.0133938558</v>
       </c>
     </row>
     <row r="16">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>249.8195364696747</v>
+        <v>349.4608215811081</v>
       </c>
       <c r="AB16" t="n">
-        <v>341.8141110577562</v>
+        <v>478.1477132106353</v>
       </c>
       <c r="AC16" t="n">
-        <v>309.1918520376237</v>
+        <v>432.5139665463417</v>
       </c>
       <c r="AD16" t="n">
-        <v>249819.5364696747</v>
+        <v>349460.8215811081</v>
       </c>
       <c r="AE16" t="n">
-        <v>341814.1110577562</v>
+        <v>478147.7132106354</v>
       </c>
       <c r="AF16" t="n">
         <v>6.805084805705333e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>309191.8520376238</v>
+        <v>432513.9665463418</v>
       </c>
     </row>
   </sheetData>
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.7922327451802</v>
+        <v>310.2373448492503</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.9929411570052</v>
+        <v>424.4804219284408</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.5529130887883</v>
+        <v>383.9686062216035</v>
       </c>
       <c r="AD2" t="n">
-        <v>217792.2327451802</v>
+        <v>310237.3448492503</v>
       </c>
       <c r="AE2" t="n">
-        <v>297992.9411570053</v>
+        <v>424480.4219284408</v>
       </c>
       <c r="AF2" t="n">
         <v>1.349405678860663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269552.9130887883</v>
+        <v>383968.6062216035</v>
       </c>
     </row>
   </sheetData>
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.1745277008032</v>
+        <v>383.5460214414584</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.5599757085239</v>
+        <v>524.7845873924563</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.6714446935499</v>
+        <v>474.6998829115137</v>
       </c>
       <c r="AD2" t="n">
-        <v>267174.5277008032</v>
+        <v>383546.0214414584</v>
       </c>
       <c r="AE2" t="n">
-        <v>365559.9757085239</v>
+        <v>524784.5873924562</v>
       </c>
       <c r="AF2" t="n">
         <v>7.462616477209958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>330671.4446935499</v>
+        <v>474699.8829115137</v>
       </c>
     </row>
     <row r="3">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.7980248456478</v>
+        <v>348.5620751139645</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.8387249696511</v>
+        <v>476.9180086443936</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.2639413937128</v>
+        <v>431.4016232580009</v>
       </c>
       <c r="AD3" t="n">
-        <v>241798.0248456478</v>
+        <v>348562.0751139644</v>
       </c>
       <c r="AE3" t="n">
-        <v>330838.7249696511</v>
+        <v>476918.0086443936</v>
       </c>
       <c r="AF3" t="n">
         <v>8.02461011053991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>299263.9413937128</v>
+        <v>431401.6232580009</v>
       </c>
     </row>
     <row r="4">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.1585577619548</v>
+        <v>334.8884426114905</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.176604374932</v>
+        <v>458.209141416417</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.382907396097</v>
+        <v>414.4783040602024</v>
       </c>
       <c r="AD4" t="n">
-        <v>228158.5577619548</v>
+        <v>334888.4426114905</v>
       </c>
       <c r="AE4" t="n">
-        <v>312176.604374932</v>
+        <v>458209.141416417</v>
       </c>
       <c r="AF4" t="n">
         <v>8.437884256107866e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>282382.907396097</v>
+        <v>414478.3040602024</v>
       </c>
     </row>
     <row r="5">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.772599592317</v>
+        <v>312.119803492837</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.5437870293041</v>
+        <v>427.0560848928102</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.1922396357343</v>
+        <v>386.2984515276193</v>
       </c>
       <c r="AD5" t="n">
-        <v>224772.599592317</v>
+        <v>312119.803492837</v>
       </c>
       <c r="AE5" t="n">
-        <v>307543.7870293041</v>
+        <v>427056.0848928103</v>
       </c>
       <c r="AF5" t="n">
         <v>8.782043416882924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>278192.2396357343</v>
+        <v>386298.4515276193</v>
       </c>
     </row>
     <row r="6">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.7734761578032</v>
+        <v>312.1206800583233</v>
       </c>
       <c r="AB6" t="n">
-        <v>307.5449863848737</v>
+        <v>427.0572842483799</v>
       </c>
       <c r="AC6" t="n">
-        <v>278.1933245264916</v>
+        <v>386.2995364183766</v>
       </c>
       <c r="AD6" t="n">
-        <v>224773.4761578032</v>
+        <v>312120.6800583233</v>
       </c>
       <c r="AE6" t="n">
-        <v>307544.9863848736</v>
+        <v>427057.2842483799</v>
       </c>
       <c r="AF6" t="n">
         <v>8.785068001878515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>278193.3245264916</v>
+        <v>386299.5364183766</v>
       </c>
     </row>
     <row r="7">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>224.8136231921033</v>
+        <v>312.1608270926233</v>
       </c>
       <c r="AB7" t="n">
-        <v>307.5999173283651</v>
+        <v>427.1122151918713</v>
       </c>
       <c r="AC7" t="n">
-        <v>278.2430129378323</v>
+        <v>386.3492248297173</v>
       </c>
       <c r="AD7" t="n">
-        <v>224813.6231921033</v>
+        <v>312160.8270926233</v>
       </c>
       <c r="AE7" t="n">
-        <v>307599.9173283651</v>
+        <v>427112.2151918713</v>
       </c>
       <c r="AF7" t="n">
         <v>8.783716591561336e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>278243.0129378323</v>
+        <v>386349.2248297174</v>
       </c>
     </row>
   </sheetData>
@@ -17601,28 +17601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.4922647497482</v>
+        <v>317.3542939921124</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.528464647087</v>
+        <v>434.2181457233415</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.0829410036801</v>
+        <v>392.7769753245001</v>
       </c>
       <c r="AD2" t="n">
-        <v>225492.2647497483</v>
+        <v>317354.2939921124</v>
       </c>
       <c r="AE2" t="n">
-        <v>308528.464647087</v>
+        <v>434218.1457233415</v>
       </c>
       <c r="AF2" t="n">
         <v>1.422292484840909e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>279082.9410036801</v>
+        <v>392776.9753245001</v>
       </c>
     </row>
   </sheetData>
@@ -17898,28 +17898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.7537984905852</v>
+        <v>484.031779556034</v>
       </c>
       <c r="AB2" t="n">
-        <v>473.0756006758653</v>
+        <v>662.2736347635929</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.9259293131357</v>
+        <v>599.067168568639</v>
       </c>
       <c r="AD2" t="n">
-        <v>345753.7984905852</v>
+        <v>484031.779556034</v>
       </c>
       <c r="AE2" t="n">
-        <v>473075.6006758653</v>
+        <v>662273.6347635929</v>
       </c>
       <c r="AF2" t="n">
         <v>5.366788420898892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>427925.9293131357</v>
+        <v>599067.168568639</v>
       </c>
     </row>
     <row r="3">
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.831190781289</v>
+        <v>434.2922440621613</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.4517275468579</v>
+        <v>594.21780794744</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.5152819704731</v>
+        <v>537.5064943468668</v>
       </c>
       <c r="AD3" t="n">
-        <v>305831.190781289</v>
+        <v>434292.2440621613</v>
       </c>
       <c r="AE3" t="n">
-        <v>418451.7275468578</v>
+        <v>594217.80794744</v>
       </c>
       <c r="AF3" t="n">
         <v>5.891920845213806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>378515.2819704731</v>
+        <v>537506.4943468668</v>
       </c>
     </row>
     <row r="4">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.509477498298</v>
+        <v>408.0189633791848</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.1196393698989</v>
+        <v>558.2695462216525</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.3145369458406</v>
+        <v>504.9890842664865</v>
       </c>
       <c r="AD4" t="n">
-        <v>289509.477498298</v>
+        <v>408018.9633791848</v>
       </c>
       <c r="AE4" t="n">
-        <v>396119.6393698989</v>
+        <v>558269.5462216525</v>
       </c>
       <c r="AF4" t="n">
         <v>6.293301653220768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>358314.5369458406</v>
+        <v>504989.0842664865</v>
       </c>
     </row>
     <row r="5">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.4765697131081</v>
+        <v>384.1359734204947</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.9191958500037</v>
+        <v>525.5917857170182</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.9465568074924</v>
+        <v>475.4300433608895</v>
       </c>
       <c r="AD5" t="n">
-        <v>275476.5697131081</v>
+        <v>384135.9734204947</v>
       </c>
       <c r="AE5" t="n">
-        <v>376919.1958500037</v>
+        <v>525591.7857170182</v>
       </c>
       <c r="AF5" t="n">
         <v>6.581962097595195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>340946.5568074924</v>
+        <v>475430.0433608895</v>
       </c>
     </row>
     <row r="6">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>262.4110655028908</v>
+        <v>371.0363037914967</v>
       </c>
       <c r="AB6" t="n">
-        <v>359.0423965802198</v>
+        <v>507.6682398139865</v>
       </c>
       <c r="AC6" t="n">
-        <v>324.7758941697713</v>
+        <v>459.2170955229884</v>
       </c>
       <c r="AD6" t="n">
-        <v>262411.0655028909</v>
+        <v>371036.3037914967</v>
       </c>
       <c r="AE6" t="n">
-        <v>359042.3965802197</v>
+        <v>507668.2398139865</v>
       </c>
       <c r="AF6" t="n">
         <v>6.802307170071114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>324775.8941697713</v>
+        <v>459217.0955229884</v>
       </c>
     </row>
     <row r="7">
@@ -18428,28 +18428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.7403512671999</v>
+        <v>357.4329093635133</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.33752225344</v>
+        <v>489.0554754182131</v>
       </c>
       <c r="AC7" t="n">
-        <v>307.8561867963856</v>
+        <v>442.3807072379687</v>
       </c>
       <c r="AD7" t="n">
-        <v>248740.3512671999</v>
+        <v>357432.9093635133</v>
       </c>
       <c r="AE7" t="n">
-        <v>340337.52225344</v>
+        <v>489055.4754182131</v>
       </c>
       <c r="AF7" t="n">
         <v>7.075680650078088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>307856.1867963856</v>
+        <v>442380.7072379687</v>
       </c>
     </row>
     <row r="8">
@@ -18534,28 +18534,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>248.0739951223722</v>
+        <v>346.8491512374809</v>
       </c>
       <c r="AB8" t="n">
-        <v>339.4257843785288</v>
+        <v>474.5743106277208</v>
       </c>
       <c r="AC8" t="n">
-        <v>307.0314639046236</v>
+        <v>429.2816044906386</v>
       </c>
       <c r="AD8" t="n">
-        <v>248073.9951223722</v>
+        <v>346849.1512374809</v>
       </c>
       <c r="AE8" t="n">
-        <v>339425.7843785288</v>
+        <v>474574.3106277208</v>
       </c>
       <c r="AF8" t="n">
         <v>7.129493004499781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>307031.4639046236</v>
+        <v>429281.6044906387</v>
       </c>
     </row>
     <row r="9">
@@ -18640,28 +18640,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.2780338924597</v>
+        <v>345.0531900075684</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.9684709915463</v>
+        <v>472.1169972407371</v>
       </c>
       <c r="AC9" t="n">
-        <v>304.8086730584329</v>
+        <v>427.0588136444476</v>
       </c>
       <c r="AD9" t="n">
-        <v>246278.0338924597</v>
+        <v>345053.1900075685</v>
       </c>
       <c r="AE9" t="n">
-        <v>336968.4709915463</v>
+        <v>472116.9972407371</v>
       </c>
       <c r="AF9" t="n">
         <v>7.25498050320843e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>304808.6730584329</v>
+        <v>427058.8136444476</v>
       </c>
     </row>
     <row r="10">
@@ -18746,28 +18746,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>234.5602285749688</v>
+        <v>333.4027044977818</v>
       </c>
       <c r="AB10" t="n">
-        <v>320.9356528030773</v>
+        <v>456.1762889831012</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.3060045356646</v>
+        <v>412.639464209996</v>
       </c>
       <c r="AD10" t="n">
-        <v>234560.2285749688</v>
+        <v>333402.7044977818</v>
       </c>
       <c r="AE10" t="n">
-        <v>320935.6528030774</v>
+        <v>456176.2889831013</v>
       </c>
       <c r="AF10" t="n">
         <v>7.380076028471761e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>290306.0045356646</v>
+        <v>412639.464209996</v>
       </c>
     </row>
     <row r="11">
@@ -18852,28 +18852,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>234.5750447863525</v>
+        <v>343.233437463885</v>
       </c>
       <c r="AB11" t="n">
-        <v>320.9559249971376</v>
+        <v>469.627131528653</v>
       </c>
       <c r="AC11" t="n">
-        <v>290.3243419799761</v>
+        <v>424.8065772213764</v>
       </c>
       <c r="AD11" t="n">
-        <v>234575.0447863525</v>
+        <v>343233.4374638849</v>
       </c>
       <c r="AE11" t="n">
-        <v>320955.9249971376</v>
+        <v>469627.131528653</v>
       </c>
       <c r="AF11" t="n">
         <v>7.354485762113059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>290324.341979976</v>
+        <v>424806.5772213764</v>
       </c>
     </row>
     <row r="12">
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>234.5452683043925</v>
+        <v>343.2036609819249</v>
       </c>
       <c r="AB12" t="n">
-        <v>320.9151835008743</v>
+        <v>469.5863900323896</v>
       </c>
       <c r="AC12" t="n">
-        <v>290.287488794935</v>
+        <v>424.7697240363354</v>
       </c>
       <c r="AD12" t="n">
-        <v>234545.2683043925</v>
+        <v>343203.6609819249</v>
       </c>
       <c r="AE12" t="n">
-        <v>320915.1835008743</v>
+        <v>469586.3900323896</v>
       </c>
       <c r="AF12" t="n">
         <v>7.355549690036067e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>290287.4887949351</v>
+        <v>424769.7240363354</v>
       </c>
     </row>
   </sheetData>
@@ -19255,28 +19255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.6037140356362</v>
+        <v>573.3636889810987</v>
       </c>
       <c r="AB2" t="n">
-        <v>565.9108484516195</v>
+        <v>784.5014942846651</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.9011113362604</v>
+        <v>709.6297727248983</v>
       </c>
       <c r="AD2" t="n">
-        <v>413603.7140356362</v>
+        <v>573363.6889810987</v>
       </c>
       <c r="AE2" t="n">
-        <v>565910.8484516195</v>
+        <v>784501.4942846651</v>
       </c>
       <c r="AF2" t="n">
         <v>4.3045542740141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>511901.1113362605</v>
+        <v>709629.7727248983</v>
       </c>
     </row>
     <row r="3">
@@ -19361,28 +19361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.7723761116575</v>
+        <v>506.5741641852969</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.1517046823536</v>
+        <v>693.1171199131719</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.5631911126895</v>
+        <v>626.9669947846455</v>
       </c>
       <c r="AD3" t="n">
-        <v>356772.3761116575</v>
+        <v>506574.1641852969</v>
       </c>
       <c r="AE3" t="n">
-        <v>488151.7046823536</v>
+        <v>693117.1199131719</v>
       </c>
       <c r="AF3" t="n">
         <v>4.849303217935372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>441563.1911126895</v>
+        <v>626966.9947846455</v>
       </c>
     </row>
     <row r="4">
@@ -19467,28 +19467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.9215764581829</v>
+        <v>467.7320232710755</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.6767677890191</v>
+        <v>639.9715891200165</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.8556867930329</v>
+        <v>578.8935988601679</v>
       </c>
       <c r="AD4" t="n">
-        <v>327921.5764581829</v>
+        <v>467732.0232710755</v>
       </c>
       <c r="AE4" t="n">
-        <v>448676.7677890191</v>
+        <v>639971.5891200164</v>
       </c>
       <c r="AF4" t="n">
         <v>5.217086576359935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>405855.6867930329</v>
+        <v>578893.5988601679</v>
       </c>
     </row>
     <row r="5">
@@ -19573,28 +19573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.870117982813</v>
+        <v>441.7233889537397</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.7144541626482</v>
+        <v>604.3854282270725</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.989425554862</v>
+        <v>546.7037312173559</v>
       </c>
       <c r="AD5" t="n">
-        <v>311870.117982813</v>
+        <v>441723.3889537397</v>
       </c>
       <c r="AE5" t="n">
-        <v>426714.4541626482</v>
+        <v>604385.4282270725</v>
       </c>
       <c r="AF5" t="n">
         <v>5.50834567837651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>385989.425554862</v>
+        <v>546703.7312173559</v>
       </c>
     </row>
     <row r="6">
@@ -19679,28 +19679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>297.4760853835775</v>
+        <v>417.3721805125383</v>
       </c>
       <c r="AB6" t="n">
-        <v>407.0199037404732</v>
+        <v>571.0670305383244</v>
       </c>
       <c r="AC6" t="n">
-        <v>368.1744953835046</v>
+        <v>516.5651946413573</v>
       </c>
       <c r="AD6" t="n">
-        <v>297476.0853835775</v>
+        <v>417372.1805125383</v>
       </c>
       <c r="AE6" t="n">
-        <v>407019.9037404733</v>
+        <v>571067.0305383244</v>
       </c>
       <c r="AF6" t="n">
         <v>5.739889919968952e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>368174.4953835045</v>
+        <v>516565.1946413572</v>
       </c>
     </row>
     <row r="7">
@@ -19785,28 +19785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>284.2071576917838</v>
+        <v>404.0690874019638</v>
       </c>
       <c r="AB7" t="n">
-        <v>388.8647714887857</v>
+        <v>552.8651516533891</v>
       </c>
       <c r="AC7" t="n">
-        <v>351.7520634730298</v>
+        <v>500.1004775307026</v>
       </c>
       <c r="AD7" t="n">
-        <v>284207.1576917838</v>
+        <v>404069.0874019638</v>
       </c>
       <c r="AE7" t="n">
-        <v>388864.7714887857</v>
+        <v>552865.1516533891</v>
       </c>
       <c r="AF7" t="n">
         <v>5.932264118450864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>351752.0634730298</v>
+        <v>500100.4775307026</v>
       </c>
     </row>
     <row r="8">
@@ -19891,28 +19891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>281.5045896995677</v>
+        <v>391.3420237600774</v>
       </c>
       <c r="AB8" t="n">
-        <v>385.1669987329506</v>
+        <v>535.4514217001393</v>
       </c>
       <c r="AC8" t="n">
-        <v>348.4072009591549</v>
+        <v>484.3486895238675</v>
       </c>
       <c r="AD8" t="n">
-        <v>281504.5896995677</v>
+        <v>391342.0237600774</v>
       </c>
       <c r="AE8" t="n">
-        <v>385166.9987329505</v>
+        <v>535451.4217001393</v>
       </c>
       <c r="AF8" t="n">
         <v>6.094651184591206e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>348407.2009591549</v>
+        <v>484348.6895238675</v>
       </c>
     </row>
     <row r="9">
@@ -19997,28 +19997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>267.8210937713521</v>
+        <v>377.624362413081</v>
       </c>
       <c r="AB9" t="n">
-        <v>366.4446359307308</v>
+        <v>516.6823122646717</v>
       </c>
       <c r="AC9" t="n">
-        <v>331.4716741857778</v>
+        <v>467.3708775503105</v>
       </c>
       <c r="AD9" t="n">
-        <v>267821.0937713521</v>
+        <v>377624.362413081</v>
       </c>
       <c r="AE9" t="n">
-        <v>366444.6359307308</v>
+        <v>516682.3122646717</v>
       </c>
       <c r="AF9" t="n">
         <v>6.294548106584411e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>331471.6741857778</v>
+        <v>467370.8775503105</v>
       </c>
     </row>
     <row r="10">
@@ -20103,28 +20103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>268.169773408542</v>
+        <v>377.9730420502708</v>
       </c>
       <c r="AB10" t="n">
-        <v>366.9217147929939</v>
+        <v>517.1593911269348</v>
       </c>
       <c r="AC10" t="n">
-        <v>331.9032213110109</v>
+        <v>467.8024246755434</v>
       </c>
       <c r="AD10" t="n">
-        <v>268169.773408542</v>
+        <v>377973.0420502708</v>
       </c>
       <c r="AE10" t="n">
-        <v>366921.7147929939</v>
+        <v>517159.3911269348</v>
       </c>
       <c r="AF10" t="n">
         <v>6.293251085289362e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>331903.2213110109</v>
+        <v>467802.4246755434</v>
       </c>
     </row>
     <row r="11">
@@ -20209,28 +20209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.1361469765624</v>
+        <v>366.0164051951062</v>
       </c>
       <c r="AB11" t="n">
-        <v>364.1392173914933</v>
+        <v>500.7997930921088</v>
       </c>
       <c r="AC11" t="n">
-        <v>329.3862815562499</v>
+        <v>453.0041637163212</v>
       </c>
       <c r="AD11" t="n">
-        <v>266136.1469765624</v>
+        <v>366016.4051951062</v>
       </c>
       <c r="AE11" t="n">
-        <v>364139.2173914933</v>
+        <v>500799.7930921088</v>
       </c>
       <c r="AF11" t="n">
         <v>6.415171087024122e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>329386.2815562498</v>
+        <v>453004.1637163212</v>
       </c>
     </row>
     <row r="12">
@@ -20315,28 +20315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.871997267265</v>
+        <v>364.7425857167015</v>
       </c>
       <c r="AB12" t="n">
-        <v>348.7271108198548</v>
+        <v>499.0568970848063</v>
       </c>
       <c r="AC12" t="n">
-        <v>315.445084804886</v>
+        <v>451.4276072577858</v>
       </c>
       <c r="AD12" t="n">
-        <v>254871.997267265</v>
+        <v>364742.5857167015</v>
       </c>
       <c r="AE12" t="n">
-        <v>348727.1108198548</v>
+        <v>499056.8970848063</v>
       </c>
       <c r="AF12" t="n">
         <v>6.477013062372138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>315445.084804886</v>
+        <v>451427.6072577858</v>
       </c>
     </row>
     <row r="13">
@@ -20421,28 +20421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>253.4951432672111</v>
+        <v>363.3657317166476</v>
       </c>
       <c r="AB13" t="n">
-        <v>346.8432384344706</v>
+        <v>497.1730246994212</v>
       </c>
       <c r="AC13" t="n">
-        <v>313.7410065559308</v>
+        <v>449.7235290088303</v>
       </c>
       <c r="AD13" t="n">
-        <v>253495.1432672112</v>
+        <v>363365.7317166476</v>
       </c>
       <c r="AE13" t="n">
-        <v>346843.2384344706</v>
+        <v>497173.0246994212</v>
       </c>
       <c r="AF13" t="n">
         <v>6.540515224977818e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>313741.0065559308</v>
+        <v>449723.5290088303</v>
       </c>
     </row>
     <row r="14">
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>252.3467783730009</v>
+        <v>362.1158815959522</v>
       </c>
       <c r="AB14" t="n">
-        <v>345.2719949239295</v>
+        <v>495.4629246247899</v>
       </c>
       <c r="AC14" t="n">
-        <v>312.319720320781</v>
+        <v>448.1766384851813</v>
       </c>
       <c r="AD14" t="n">
-        <v>252346.7783730009</v>
+        <v>362115.8815959522</v>
       </c>
       <c r="AE14" t="n">
-        <v>345271.9949239295</v>
+        <v>495462.9246247899</v>
       </c>
       <c r="AF14" t="n">
         <v>6.601060179030781e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH14" t="n">
-        <v>312319.720320781</v>
+        <v>448176.6384851813</v>
       </c>
     </row>
     <row r="15">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>251.4030923782091</v>
+        <v>351.2491851779752</v>
       </c>
       <c r="AB15" t="n">
-        <v>343.980802113368</v>
+        <v>480.5946311809026</v>
       </c>
       <c r="AC15" t="n">
-        <v>311.1517571398587</v>
+        <v>434.7273540997976</v>
       </c>
       <c r="AD15" t="n">
-        <v>251403.0923782091</v>
+        <v>351249.1851779752</v>
       </c>
       <c r="AE15" t="n">
-        <v>343980.8021133681</v>
+        <v>480594.6311809026</v>
       </c>
       <c r="AF15" t="n">
         <v>6.662798392675191e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>311151.7571398587</v>
+        <v>434727.3540997976</v>
       </c>
     </row>
     <row r="16">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>251.4841692691529</v>
+        <v>351.330262068919</v>
       </c>
       <c r="AB16" t="n">
-        <v>344.0917350924173</v>
+        <v>480.7055641599519</v>
       </c>
       <c r="AC16" t="n">
-        <v>311.252102831083</v>
+        <v>434.8276997910219</v>
       </c>
       <c r="AD16" t="n">
-        <v>251484.1692691529</v>
+        <v>351330.262068919</v>
       </c>
       <c r="AE16" t="n">
-        <v>344091.7350924173</v>
+        <v>480705.5641599519</v>
       </c>
       <c r="AF16" t="n">
         <v>6.649724418021082e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH16" t="n">
-        <v>311252.102831083</v>
+        <v>434827.6997910219</v>
       </c>
     </row>
   </sheetData>
@@ -21036,19 +21036,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.4635650003498</v>
+        <v>328.8681157823146</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.7527081500451</v>
+        <v>449.9718646506639</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.5720988109163</v>
+        <v>407.0271814278822</v>
       </c>
       <c r="AD2" t="n">
-        <v>223463.5650003498</v>
+        <v>328868.1157823146</v>
       </c>
       <c r="AE2" t="n">
-        <v>305752.7081500451</v>
+        <v>449971.8646506639</v>
       </c>
       <c r="AF2" t="n">
         <v>9.339212928010735e-06</v>
@@ -21057,7 +21057,7 @@
         <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>276572.0988109163</v>
+        <v>407027.1814278822</v>
       </c>
     </row>
     <row r="3">
@@ -21142,28 +21142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.9475083734285</v>
+        <v>306.2103480368451</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.9418843556231</v>
+        <v>418.9705072311472</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.2204132873988</v>
+        <v>378.9845500498058</v>
       </c>
       <c r="AD3" t="n">
-        <v>219947.5083734285</v>
+        <v>306210.3480368451</v>
       </c>
       <c r="AE3" t="n">
-        <v>300941.8843556231</v>
+        <v>418970.5072311472</v>
       </c>
       <c r="AF3" t="n">
         <v>9.816567528035055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>272220.4132873988</v>
+        <v>378984.5500498058</v>
       </c>
     </row>
     <row r="4">
@@ -21248,28 +21248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.0894209942471</v>
+        <v>305.9396934113994</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.4536142953128</v>
+        <v>418.600185632173</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.0194447907343</v>
+        <v>378.649571424488</v>
       </c>
       <c r="AD4" t="n">
-        <v>210089.4209942471</v>
+        <v>305939.6934113994</v>
       </c>
       <c r="AE4" t="n">
-        <v>287453.6142953128</v>
+        <v>418600.185632173</v>
       </c>
       <c r="AF4" t="n">
         <v>9.840517721276474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>260019.4447907343</v>
+        <v>378649.571424488</v>
       </c>
     </row>
   </sheetData>
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.345956633366</v>
+        <v>515.2400249072433</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.2506999087192</v>
+        <v>704.9741328637316</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.412036619206</v>
+        <v>637.6923910606262</v>
       </c>
       <c r="AD2" t="n">
-        <v>366345.9566333659</v>
+        <v>515240.0249072433</v>
       </c>
       <c r="AE2" t="n">
-        <v>501250.6999087192</v>
+        <v>704974.1328637316</v>
       </c>
       <c r="AF2" t="n">
         <v>4.895320691137247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>453412.0366192061</v>
+        <v>637692.3910606261</v>
       </c>
     </row>
     <row r="3">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.6081774271053</v>
+        <v>462.539531369358</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.7749849409637</v>
+        <v>632.8669926235111</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.5171618167918</v>
+        <v>572.4670550819252</v>
       </c>
       <c r="AD3" t="n">
-        <v>323608.1774271053</v>
+        <v>462539.531369358</v>
       </c>
       <c r="AE3" t="n">
-        <v>442774.9849409637</v>
+        <v>632866.9926235111</v>
       </c>
       <c r="AF3" t="n">
         <v>5.448498272642307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>400517.1618167917</v>
+        <v>572467.0550819252</v>
       </c>
     </row>
     <row r="4">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.7539252521912</v>
+        <v>424.8291923986131</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.3460094412314</v>
+        <v>581.2700431809982</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.4196534524714</v>
+        <v>525.7944460774323</v>
       </c>
       <c r="AD4" t="n">
-        <v>305753.9252521911</v>
+        <v>424829.1923986131</v>
       </c>
       <c r="AE4" t="n">
-        <v>418346.0094412314</v>
+        <v>581270.0431809982</v>
       </c>
       <c r="AF4" t="n">
         <v>5.870470351134308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>378419.6534524714</v>
+        <v>525794.4460774324</v>
       </c>
     </row>
     <row r="5">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.4673412984422</v>
+        <v>400.575762833788</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.1160338272472</v>
+        <v>548.0854308646077</v>
       </c>
       <c r="AC5" t="n">
-        <v>348.3611000725222</v>
+        <v>495.7769265856224</v>
       </c>
       <c r="AD5" t="n">
-        <v>281467.3412984422</v>
+        <v>400575.7628337879</v>
       </c>
       <c r="AE5" t="n">
-        <v>385116.0338272472</v>
+        <v>548085.4308646077</v>
       </c>
       <c r="AF5" t="n">
         <v>6.138736809361009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>348361.1000725222</v>
+        <v>495776.9265856224</v>
       </c>
     </row>
     <row r="6">
@@ -21969,28 +21969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.2614598167391</v>
+        <v>387.4081780503173</v>
       </c>
       <c r="AB6" t="n">
-        <v>380.7296053504719</v>
+        <v>530.0689604510213</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.3933061731793</v>
+        <v>479.4799228220335</v>
       </c>
       <c r="AD6" t="n">
-        <v>278261.4598167391</v>
+        <v>387408.1780503173</v>
       </c>
       <c r="AE6" t="n">
-        <v>380729.6053504719</v>
+        <v>530068.9604510213</v>
       </c>
       <c r="AF6" t="n">
         <v>6.342810161981322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>344393.3061731793</v>
+        <v>479479.9228220335</v>
       </c>
     </row>
     <row r="7">
@@ -22075,28 +22075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.0954200457593</v>
+        <v>374.3094580870419</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.7152488911368</v>
+        <v>512.1467139225275</v>
       </c>
       <c r="AC7" t="n">
-        <v>328.098214611015</v>
+        <v>463.2681503481883</v>
       </c>
       <c r="AD7" t="n">
-        <v>265095.4200457594</v>
+        <v>374309.458087042</v>
       </c>
       <c r="AE7" t="n">
-        <v>362715.2488911367</v>
+        <v>512146.7139225276</v>
       </c>
       <c r="AF7" t="n">
         <v>6.562498053803188e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>328098.214611015</v>
+        <v>463268.1503481884</v>
       </c>
     </row>
     <row r="8">
@@ -22181,28 +22181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>251.9318169921202</v>
+        <v>361.1116896146251</v>
       </c>
       <c r="AB8" t="n">
-        <v>344.7042264558045</v>
+        <v>494.0889448541147</v>
       </c>
       <c r="AC8" t="n">
-        <v>311.8061388783857</v>
+        <v>446.9337894154266</v>
       </c>
       <c r="AD8" t="n">
-        <v>251931.8169921202</v>
+        <v>361111.6896146251</v>
       </c>
       <c r="AE8" t="n">
-        <v>344704.2264558045</v>
+        <v>494088.9448541147</v>
       </c>
       <c r="AF8" t="n">
         <v>6.764240068973268e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>311806.1388783857</v>
+        <v>446933.7894154266</v>
       </c>
     </row>
     <row r="9">
@@ -22287,28 +22287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>252.1848762845669</v>
+        <v>361.3647489070719</v>
       </c>
       <c r="AB9" t="n">
-        <v>345.050473343918</v>
+        <v>494.4351917422284</v>
       </c>
       <c r="AC9" t="n">
-        <v>312.1193404494583</v>
+        <v>447.2469909864993</v>
       </c>
       <c r="AD9" t="n">
-        <v>252184.8762845669</v>
+        <v>361364.7489070719</v>
       </c>
       <c r="AE9" t="n">
-        <v>345050.473343918</v>
+        <v>494435.1917422283</v>
       </c>
       <c r="AF9" t="n">
         <v>6.75231229597208e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>312119.3404494583</v>
+        <v>447246.9909864993</v>
       </c>
     </row>
     <row r="10">
@@ -22393,28 +22393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>250.214632125037</v>
+        <v>359.2930195210567</v>
       </c>
       <c r="AB10" t="n">
-        <v>342.3546983638128</v>
+        <v>491.6005601980324</v>
       </c>
       <c r="AC10" t="n">
-        <v>309.6808464499095</v>
+        <v>444.682892698451</v>
       </c>
       <c r="AD10" t="n">
-        <v>250214.632125037</v>
+        <v>359293.0195210567</v>
       </c>
       <c r="AE10" t="n">
-        <v>342354.6983638128</v>
+        <v>491600.5601980324</v>
       </c>
       <c r="AF10" t="n">
         <v>6.885686484985356e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>309680.8464499095</v>
+        <v>444682.8926984511</v>
       </c>
     </row>
     <row r="11">
@@ -22499,28 +22499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>248.2370540188293</v>
+        <v>347.4552233395668</v>
       </c>
       <c r="AB11" t="n">
-        <v>339.6488887543122</v>
+        <v>475.4035652158087</v>
       </c>
       <c r="AC11" t="n">
-        <v>307.2332755119112</v>
+        <v>430.0317161847055</v>
       </c>
       <c r="AD11" t="n">
-        <v>248237.0540188293</v>
+        <v>347455.2233395668</v>
       </c>
       <c r="AE11" t="n">
-        <v>339648.8887543122</v>
+        <v>475403.5652158087</v>
       </c>
       <c r="AF11" t="n">
         <v>7.018898022548614e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>307233.2755119112</v>
+        <v>430031.7161847055</v>
       </c>
     </row>
     <row r="12">
@@ -22605,28 +22605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>236.9379373281062</v>
+        <v>346.0836445318302</v>
       </c>
       <c r="AB12" t="n">
-        <v>324.1889388162253</v>
+        <v>473.5269105812771</v>
       </c>
       <c r="AC12" t="n">
-        <v>293.2488014977344</v>
+        <v>428.3341668345923</v>
       </c>
       <c r="AD12" t="n">
-        <v>236937.9373281062</v>
+        <v>346083.6445318302</v>
       </c>
       <c r="AE12" t="n">
-        <v>324188.9388162253</v>
+        <v>473526.9105812771</v>
       </c>
       <c r="AF12" t="n">
         <v>7.082603173804955e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>293248.8014977344</v>
+        <v>428334.1668345924</v>
       </c>
     </row>
     <row r="13">
@@ -22711,19 +22711,19 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>237.1374047877615</v>
+        <v>346.2831119914855</v>
       </c>
       <c r="AB13" t="n">
-        <v>324.4618589944088</v>
+        <v>473.7998307594607</v>
       </c>
       <c r="AC13" t="n">
-        <v>293.4956745571579</v>
+        <v>428.581039894016</v>
       </c>
       <c r="AD13" t="n">
-        <v>237137.4047877615</v>
+        <v>346283.1119914855</v>
       </c>
       <c r="AE13" t="n">
-        <v>324461.8589944087</v>
+        <v>473799.8307594607</v>
       </c>
       <c r="AF13" t="n">
         <v>7.064115125653114e-06</v>
@@ -22732,7 +22732,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>293495.674557158</v>
+        <v>428581.039894016</v>
       </c>
     </row>
   </sheetData>
@@ -23008,28 +23008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.8562244016364</v>
+        <v>355.9167339428837</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.8643091048235</v>
+        <v>486.9809773187687</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.2372592535323</v>
+        <v>440.5041963255591</v>
       </c>
       <c r="AD2" t="n">
-        <v>249856.2244016363</v>
+        <v>355916.7339428837</v>
       </c>
       <c r="AE2" t="n">
-        <v>341864.3091048234</v>
+        <v>486980.9773187687</v>
       </c>
       <c r="AF2" t="n">
         <v>8.331378193596793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>309237.2592535323</v>
+        <v>440504.1963255591</v>
       </c>
     </row>
     <row r="3">
@@ -23114,28 +23114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.5968061269473</v>
+        <v>331.6904700571179</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.6715027714108</v>
+        <v>453.8335342829326</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.2123277701737</v>
+        <v>410.5202987303346</v>
       </c>
       <c r="AD3" t="n">
-        <v>225596.8061269473</v>
+        <v>331690.4700571179</v>
       </c>
       <c r="AE3" t="n">
-        <v>308671.5027714107</v>
+        <v>453833.5342829326</v>
       </c>
       <c r="AF3" t="n">
         <v>8.887412573809626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>279212.3277701737</v>
+        <v>410520.2987303346</v>
       </c>
     </row>
     <row r="4">
@@ -23220,28 +23220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.3956765500407</v>
+        <v>309.2223360619894</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.2915760604195</v>
+        <v>423.091642126683</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.2504151172123</v>
+        <v>382.7123696149608</v>
       </c>
       <c r="AD4" t="n">
-        <v>222395.6765500407</v>
+        <v>309222.3360619894</v>
       </c>
       <c r="AE4" t="n">
-        <v>304291.5760604194</v>
+        <v>423091.642126683</v>
       </c>
       <c r="AF4" t="n">
         <v>9.266653064659597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>275250.4151172123</v>
+        <v>382712.3696149609</v>
       </c>
     </row>
     <row r="5">
@@ -23326,28 +23326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.5832305071922</v>
+        <v>309.4098900191409</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.5481956588907</v>
+        <v>423.3482617251544</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.4825433013734</v>
+        <v>382.944497799122</v>
       </c>
       <c r="AD5" t="n">
-        <v>222583.2305071922</v>
+        <v>309409.8900191409</v>
       </c>
       <c r="AE5" t="n">
-        <v>304548.1956588907</v>
+        <v>423348.2617251544</v>
       </c>
       <c r="AF5" t="n">
         <v>9.220356349374682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>275482.5433013734</v>
+        <v>382944.497799122</v>
       </c>
     </row>
   </sheetData>
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.4272337334723</v>
+        <v>401.5812534547266</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.1658892380936</v>
+        <v>549.4611874912914</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.0244429669652</v>
+        <v>497.021382930742</v>
       </c>
       <c r="AD2" t="n">
-        <v>284427.2337334723</v>
+        <v>401581.2534547266</v>
       </c>
       <c r="AE2" t="n">
-        <v>389165.8892380936</v>
+        <v>549461.1874912914</v>
       </c>
       <c r="AF2" t="n">
         <v>6.77138280170036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>352024.4429669652</v>
+        <v>497021.382930742</v>
       </c>
     </row>
     <row r="3">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.5656320791668</v>
+        <v>375.8894970159454</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.4633460901948</v>
+        <v>514.3085928914513</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.3931600773912</v>
+        <v>465.2237026225341</v>
       </c>
       <c r="AD3" t="n">
-        <v>268565.6320791668</v>
+        <v>375889.4970159454</v>
       </c>
       <c r="AE3" t="n">
-        <v>367463.3460901948</v>
+        <v>514308.5928914513</v>
       </c>
       <c r="AF3" t="n">
         <v>7.269402559784909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>332393.1600773912</v>
+        <v>465223.7026225341</v>
       </c>
     </row>
     <row r="4">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.0172436809361</v>
+        <v>351.3742630066415</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.8751580851164</v>
+        <v>480.765768184128</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.0105815942997</v>
+        <v>434.8821580276276</v>
       </c>
       <c r="AD4" t="n">
-        <v>244017.2436809361</v>
+        <v>351374.2630066415</v>
       </c>
       <c r="AE4" t="n">
-        <v>333875.1580851164</v>
+        <v>480765.768184128</v>
       </c>
       <c r="AF4" t="n">
         <v>7.709953766590612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>302010.5815942996</v>
+        <v>434882.1580276276</v>
       </c>
     </row>
     <row r="5">
@@ -23941,19 +23941,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.9965075543688</v>
+        <v>338.3193614612932</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.0596124824195</v>
+        <v>462.9034759481743</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.8953266596432</v>
+        <v>418.7246178927887</v>
       </c>
       <c r="AD5" t="n">
-        <v>230996.5075543688</v>
+        <v>338319.3614612932</v>
       </c>
       <c r="AE5" t="n">
-        <v>316059.6124824195</v>
+        <v>462903.4759481743</v>
       </c>
       <c r="AF5" t="n">
         <v>8.015447724941217e-06</v>
@@ -23962,7 +23962,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>285895.3266596432</v>
+        <v>418724.6178927887</v>
       </c>
     </row>
     <row r="6">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.0265241614515</v>
+        <v>327.6548739291663</v>
       </c>
       <c r="AB6" t="n">
-        <v>314.7324384115836</v>
+        <v>448.3118536227334</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.694816219427</v>
+        <v>405.5255995226174</v>
       </c>
       <c r="AD6" t="n">
-        <v>230026.5241614515</v>
+        <v>327654.8739291664</v>
       </c>
       <c r="AE6" t="n">
-        <v>314732.4384115836</v>
+        <v>448311.8536227334</v>
       </c>
       <c r="AF6" t="n">
         <v>8.095989838029019e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>284694.816219427</v>
+        <v>405525.5995226174</v>
       </c>
     </row>
     <row r="7">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.9651875633862</v>
+        <v>325.4920521046158</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.9120267383596</v>
+        <v>445.3525853854186</v>
       </c>
       <c r="AC7" t="n">
-        <v>282.1435806778219</v>
+        <v>402.8487596925129</v>
       </c>
       <c r="AD7" t="n">
-        <v>227965.1875633862</v>
+        <v>325492.0521046158</v>
       </c>
       <c r="AE7" t="n">
-        <v>311912.0267383596</v>
+        <v>445352.5853854186</v>
       </c>
       <c r="AF7" t="n">
         <v>8.273194792721816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>282143.5806778219</v>
+        <v>402848.7596925129</v>
       </c>
     </row>
     <row r="8">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>228.00609408879</v>
+        <v>325.5329586300196</v>
       </c>
       <c r="AB8" t="n">
-        <v>311.9679968510856</v>
+        <v>445.4085554981447</v>
       </c>
       <c r="AC8" t="n">
-        <v>282.1942090815439</v>
+        <v>402.8993880962349</v>
       </c>
       <c r="AD8" t="n">
-        <v>228006.09408879</v>
+        <v>325532.9586300196</v>
       </c>
       <c r="AE8" t="n">
-        <v>311967.9968510856</v>
+        <v>445408.5554981446</v>
       </c>
       <c r="AF8" t="n">
         <v>8.267287960898721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>282194.2090815439</v>
+        <v>402899.3880962349</v>
       </c>
     </row>
   </sheetData>
@@ -24556,28 +24556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.2362820373909</v>
+        <v>302.8808055513246</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.2322648717941</v>
+        <v>414.4148803134105</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.8648346806216</v>
+        <v>374.8637057712353</v>
       </c>
       <c r="AD2" t="n">
-        <v>217236.2820373909</v>
+        <v>302880.8055513246</v>
       </c>
       <c r="AE2" t="n">
-        <v>297232.2648717941</v>
+        <v>414414.8803134105</v>
       </c>
       <c r="AF2" t="n">
         <v>1.048289657873027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>268864.8346806216</v>
+        <v>374863.7057712353</v>
       </c>
     </row>
     <row r="3">
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.4095944528088</v>
+        <v>302.5728489260912</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.7869573957158</v>
+        <v>413.9935204726787</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.7027284794484</v>
+        <v>374.4825599223207</v>
       </c>
       <c r="AD3" t="n">
-        <v>207409.5944528088</v>
+        <v>302572.8489260912</v>
       </c>
       <c r="AE3" t="n">
-        <v>283786.9573957158</v>
+        <v>413993.5204726787</v>
       </c>
       <c r="AF3" t="n">
         <v>1.052922677200394e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>256702.7284794483</v>
+        <v>374482.5599223207</v>
       </c>
     </row>
   </sheetData>
@@ -24959,28 +24959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.732292894459</v>
+        <v>306.6401413544445</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.0697082244603</v>
+        <v>419.5585694094295</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.2904237905048</v>
+        <v>379.5164883991434</v>
       </c>
       <c r="AD2" t="n">
-        <v>212732.292894459</v>
+        <v>306640.1413544445</v>
       </c>
       <c r="AE2" t="n">
-        <v>291069.7082244603</v>
+        <v>419558.5694094296</v>
       </c>
       <c r="AF2" t="n">
         <v>1.179662444028651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263290.4237905048</v>
+        <v>379516.4883991434</v>
       </c>
     </row>
   </sheetData>
@@ -42765,28 +42765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.5441215409325</v>
+        <v>499.0757304149262</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.6299320074882</v>
+        <v>682.8574320209999</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.8547244615302</v>
+        <v>617.6864771053401</v>
       </c>
       <c r="AD2" t="n">
-        <v>350544.1215409325</v>
+        <v>499075.7304149262</v>
       </c>
       <c r="AE2" t="n">
-        <v>479629.9320074882</v>
+        <v>682857.432021</v>
       </c>
       <c r="AF2" t="n">
         <v>5.140885854735363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>433854.7244615302</v>
+        <v>617686.4771053401</v>
       </c>
     </row>
     <row r="3">
@@ -42871,28 +42871,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.2538406543412</v>
+        <v>447.9389698445373</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.8171892686872</v>
+        <v>612.8898602139376</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.1279698016585</v>
+        <v>554.3965121514399</v>
       </c>
       <c r="AD3" t="n">
-        <v>319253.8406543412</v>
+        <v>447938.9698445373</v>
       </c>
       <c r="AE3" t="n">
-        <v>436817.1892686872</v>
+        <v>612889.8602139376</v>
       </c>
       <c r="AF3" t="n">
         <v>5.685533771115845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>395127.9698016585</v>
+        <v>554396.5121514399</v>
       </c>
     </row>
     <row r="4">
@@ -42977,28 +42977,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.5791155288524</v>
+        <v>411.4590672980967</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.3196535461756</v>
+        <v>562.9764481701814</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.1137076638903</v>
+        <v>509.2467660992262</v>
       </c>
       <c r="AD4" t="n">
-        <v>292579.1155288523</v>
+        <v>411459.0672980967</v>
       </c>
       <c r="AE4" t="n">
-        <v>400319.6535461756</v>
+        <v>562976.4481701814</v>
       </c>
       <c r="AF4" t="n">
         <v>6.076118153706259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>362113.7076638903</v>
+        <v>509246.7660992262</v>
       </c>
     </row>
     <row r="5">
@@ -43083,28 +43083,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.3337592692665</v>
+        <v>397.1795456197301</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.8285286510467</v>
+        <v>543.4385766418047</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.4827883727869</v>
+        <v>491.5735616079428</v>
       </c>
       <c r="AD5" t="n">
-        <v>278333.7592692665</v>
+        <v>397179.5456197301</v>
       </c>
       <c r="AE5" t="n">
-        <v>380828.5286510467</v>
+        <v>543438.5766418048</v>
       </c>
       <c r="AF5" t="n">
         <v>6.359678780074253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>344482.7883727869</v>
+        <v>491573.5616079428</v>
       </c>
     </row>
     <row r="6">
@@ -43189,28 +43189,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.2430364599894</v>
+        <v>384.054657391672</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.9172241814628</v>
+        <v>525.4805255389731</v>
       </c>
       <c r="AC6" t="n">
-        <v>328.2809136631064</v>
+        <v>475.3294016980823</v>
       </c>
       <c r="AD6" t="n">
-        <v>265243.0364599894</v>
+        <v>384054.657391672</v>
       </c>
       <c r="AE6" t="n">
-        <v>362917.2241814628</v>
+        <v>525480.525538973</v>
       </c>
       <c r="AF6" t="n">
         <v>6.569485001099057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>328280.9136631064</v>
+        <v>475329.4016980823</v>
       </c>
     </row>
     <row r="7">
@@ -43295,28 +43295,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.0477520331224</v>
+        <v>361.081224118569</v>
       </c>
       <c r="AB7" t="n">
-        <v>358.5452950626233</v>
+        <v>494.0472606183678</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.3262353233279</v>
+        <v>446.8960834646353</v>
       </c>
       <c r="AD7" t="n">
-        <v>262047.7520331224</v>
+        <v>361081.2241185691</v>
       </c>
       <c r="AE7" t="n">
-        <v>358545.2950626233</v>
+        <v>494047.2606183678</v>
       </c>
       <c r="AF7" t="n">
         <v>6.803251764561716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>324326.2353233279</v>
+        <v>446896.0834646353</v>
       </c>
     </row>
     <row r="8">
@@ -43401,28 +43401,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>251.2548473730568</v>
+        <v>360.1939710760864</v>
       </c>
       <c r="AB8" t="n">
-        <v>343.7779667572107</v>
+        <v>492.8332818628015</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.9682801054117</v>
+        <v>445.7979651376704</v>
       </c>
       <c r="AD8" t="n">
-        <v>251254.8473730568</v>
+        <v>360193.9710760865</v>
       </c>
       <c r="AE8" t="n">
-        <v>343777.9667572107</v>
+        <v>492833.2818628015</v>
       </c>
       <c r="AF8" t="n">
         <v>6.863786560284021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>310968.2801054117</v>
+        <v>445797.9651376703</v>
       </c>
     </row>
     <row r="9">
@@ -43507,28 +43507,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>249.2123833966316</v>
+        <v>358.050021873176</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.983377437516</v>
+        <v>489.899835979016</v>
       </c>
       <c r="AC9" t="n">
-        <v>308.440402468157</v>
+        <v>443.1444832119162</v>
       </c>
       <c r="AD9" t="n">
-        <v>249212.3833966316</v>
+        <v>358050.021873176</v>
       </c>
       <c r="AE9" t="n">
-        <v>340983.3774375159</v>
+        <v>489899.835979016</v>
       </c>
       <c r="AF9" t="n">
         <v>6.999452804018358e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>308440.402468157</v>
+        <v>443144.4832119162</v>
       </c>
     </row>
     <row r="10">
@@ -43613,28 +43613,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>247.3127346857433</v>
+        <v>346.3120413524123</v>
       </c>
       <c r="AB10" t="n">
-        <v>338.3841942646935</v>
+        <v>473.8394131873541</v>
       </c>
       <c r="AC10" t="n">
-        <v>306.0892816893714</v>
+        <v>428.6168446305455</v>
       </c>
       <c r="AD10" t="n">
-        <v>247312.7346857433</v>
+        <v>346312.0413524123</v>
       </c>
       <c r="AE10" t="n">
-        <v>338384.1942646935</v>
+        <v>473839.413187354</v>
       </c>
       <c r="AF10" t="n">
         <v>7.131098083159677e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>306089.2816893714</v>
+        <v>428616.8446305455</v>
       </c>
     </row>
     <row r="11">
@@ -43719,28 +43719,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>236.0995769075567</v>
+        <v>345.0045351918055</v>
       </c>
       <c r="AB11" t="n">
-        <v>323.0418571029786</v>
+        <v>472.050425575311</v>
       </c>
       <c r="AC11" t="n">
-        <v>292.2111956532603</v>
+        <v>426.9985954853359</v>
       </c>
       <c r="AD11" t="n">
-        <v>236099.5769075567</v>
+        <v>345004.5351918055</v>
       </c>
       <c r="AE11" t="n">
-        <v>323041.8571029786</v>
+        <v>472050.425575311</v>
       </c>
       <c r="AF11" t="n">
         <v>7.187171260634932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>292211.1956532603</v>
+        <v>426998.5954853359</v>
       </c>
     </row>
     <row r="12">
@@ -43825,28 +43825,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.3886872144828</v>
+        <v>334.4553136888561</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.0691864626755</v>
+        <v>457.6165153161691</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.3313553337156</v>
+        <v>413.9422373632063</v>
       </c>
       <c r="AD12" t="n">
-        <v>235388.6872144828</v>
+        <v>334455.3136888561</v>
       </c>
       <c r="AE12" t="n">
-        <v>322069.1864626755</v>
+        <v>457616.5153161691</v>
       </c>
       <c r="AF12" t="n">
         <v>7.248917853905819e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>291331.3553337156</v>
+        <v>413942.2373632063</v>
       </c>
     </row>
   </sheetData>
@@ -44122,28 +44122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.9650631528573</v>
+        <v>312.2623739094736</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.2834624104427</v>
+        <v>427.2511560266153</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.8655319629464</v>
+        <v>386.4749053461981</v>
       </c>
       <c r="AD2" t="n">
-        <v>209965.0631528573</v>
+        <v>312262.3739094737</v>
       </c>
       <c r="AE2" t="n">
-        <v>287283.4624104427</v>
+        <v>427251.1560266153</v>
       </c>
       <c r="AF2" t="n">
         <v>1.284700287999782e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>259865.5319629464</v>
+        <v>386474.9053461981</v>
       </c>
     </row>
   </sheetData>
@@ -44419,28 +44419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.5432285033273</v>
+        <v>342.9216485108168</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.5441484381815</v>
+        <v>469.2005281279073</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0473033943654</v>
+        <v>424.4206882504563</v>
       </c>
       <c r="AD2" t="n">
-        <v>233543.2285033273</v>
+        <v>342921.6485108168</v>
       </c>
       <c r="AE2" t="n">
-        <v>319544.1484381816</v>
+        <v>469200.5281279073</v>
       </c>
       <c r="AF2" t="n">
         <v>1.480428535337935e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289047.3033943654</v>
+        <v>424420.6882504563</v>
       </c>
     </row>
   </sheetData>
@@ -44716,28 +44716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8242244051673</v>
+        <v>342.6148461007786</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0333517784002</v>
+        <v>468.780747535326</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.1080634684315</v>
+        <v>424.0409709284651</v>
       </c>
       <c r="AD2" t="n">
-        <v>236824.2244051673</v>
+        <v>342614.8461007786</v>
       </c>
       <c r="AE2" t="n">
-        <v>324033.3517784002</v>
+        <v>468780.747535326</v>
       </c>
       <c r="AF2" t="n">
         <v>8.784535078052642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>293108.0634684315</v>
+        <v>424040.9709284651</v>
       </c>
     </row>
     <row r="3">
@@ -44822,28 +44822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.4054377831809</v>
+        <v>318.5083044788704</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.3049318102371</v>
+        <v>435.7971137826733</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.2624962130122</v>
+        <v>394.2052488883449</v>
       </c>
       <c r="AD3" t="n">
-        <v>222405.4377831809</v>
+        <v>318508.3044788704</v>
       </c>
       <c r="AE3" t="n">
-        <v>304304.9318102371</v>
+        <v>435797.1137826733</v>
       </c>
       <c r="AF3" t="n">
         <v>9.381872049721245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>275262.4962130123</v>
+        <v>394205.2488883449</v>
       </c>
     </row>
     <row r="4">
@@ -44928,28 +44928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.1856210303849</v>
+        <v>307.7363833714188</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.6359247145454</v>
+        <v>421.0584960998384</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.7527768120666</v>
+        <v>380.8732641913799</v>
       </c>
       <c r="AD4" t="n">
-        <v>221185.6210303849</v>
+        <v>307736.3833714188</v>
       </c>
       <c r="AE4" t="n">
-        <v>302635.9247145454</v>
+        <v>421058.4960998383</v>
       </c>
       <c r="AF4" t="n">
         <v>9.526699993102621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>273752.7768120666</v>
+        <v>380873.2641913799</v>
       </c>
     </row>
     <row r="5">
@@ -45034,28 +45034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.2282266561025</v>
+        <v>307.7789889971364</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.6942196112797</v>
+        <v>421.1167909965727</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.805508125674</v>
+        <v>380.9259955049873</v>
       </c>
       <c r="AD5" t="n">
-        <v>221228.2266561025</v>
+        <v>307778.9889971364</v>
       </c>
       <c r="AE5" t="n">
-        <v>302694.2196112797</v>
+        <v>421116.7909965727</v>
       </c>
       <c r="AF5" t="n">
         <v>9.522733057603947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>273805.508125674</v>
+        <v>380925.9955049873</v>
       </c>
     </row>
   </sheetData>
@@ -45331,28 +45331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.7452948820905</v>
+        <v>387.8117572157261</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.1280980659551</v>
+        <v>530.6211552697897</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.4674515137113</v>
+        <v>479.9794169423091</v>
       </c>
       <c r="AD2" t="n">
-        <v>280745.2948820905</v>
+        <v>387811.7572157261</v>
       </c>
       <c r="AE2" t="n">
-        <v>384128.0980659551</v>
+        <v>530621.1552697897</v>
       </c>
       <c r="AF2" t="n">
         <v>7.101982642070123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>347467.4515137113</v>
+        <v>479979.4169423091</v>
       </c>
     </row>
     <row r="3">
@@ -45437,28 +45437,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.0049593447523</v>
+        <v>362.0030908408294</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.9090354001456</v>
+        <v>495.3085993376539</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.6096467585667</v>
+        <v>448.0370417868527</v>
       </c>
       <c r="AD3" t="n">
-        <v>255004.9593447522</v>
+        <v>362003.0908408294</v>
       </c>
       <c r="AE3" t="n">
-        <v>348909.0354001456</v>
+        <v>495308.5993376539</v>
       </c>
       <c r="AF3" t="n">
         <v>7.643935343730919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>315609.6467585667</v>
+        <v>448037.0417868527</v>
       </c>
     </row>
     <row r="4">
@@ -45543,28 +45543,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.1812758614152</v>
+        <v>338.477243983313</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.9948618003796</v>
+        <v>463.119497780087</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.500615340947</v>
+        <v>418.9200229042522</v>
       </c>
       <c r="AD4" t="n">
-        <v>241181.2758614152</v>
+        <v>338477.243983313</v>
       </c>
       <c r="AE4" t="n">
-        <v>329994.8618003796</v>
+        <v>463119.4977800871</v>
       </c>
       <c r="AF4" t="n">
         <v>8.03055929474166e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>298500.615340947</v>
+        <v>418920.0229042522</v>
       </c>
     </row>
     <row r="5">
@@ -45649,28 +45649,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.0721395512482</v>
+        <v>324.333942254365</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.6901190496552</v>
+        <v>443.7680083961049</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.0382901439689</v>
+        <v>401.4154125070914</v>
       </c>
       <c r="AD5" t="n">
-        <v>227072.1395512482</v>
+        <v>324333.942254365</v>
       </c>
       <c r="AE5" t="n">
-        <v>310690.1190496552</v>
+        <v>443768.0083961049</v>
       </c>
       <c r="AF5" t="n">
         <v>8.465416910427943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>281038.2901439689</v>
+        <v>401415.4125070914</v>
       </c>
     </row>
     <row r="6">
@@ -45755,28 +45755,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.8023840020775</v>
+        <v>324.0641867051943</v>
       </c>
       <c r="AB6" t="n">
-        <v>310.3210276065052</v>
+        <v>443.3989169529547</v>
       </c>
       <c r="AC6" t="n">
-        <v>280.7044242701299</v>
+        <v>401.0815466332524</v>
       </c>
       <c r="AD6" t="n">
-        <v>226802.3840020775</v>
+        <v>324064.1867051944</v>
       </c>
       <c r="AE6" t="n">
-        <v>310321.0276065052</v>
+        <v>443398.9169529547</v>
       </c>
       <c r="AF6" t="n">
         <v>8.470762231806592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>280704.4242701299</v>
+        <v>401081.5466332524</v>
       </c>
     </row>
     <row r="7">
@@ -45861,28 +45861,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>226.5947160544243</v>
+        <v>323.8565187575412</v>
       </c>
       <c r="AB7" t="n">
-        <v>310.036887158863</v>
+        <v>443.1147765053123</v>
       </c>
       <c r="AC7" t="n">
-        <v>280.447401788017</v>
+        <v>400.8245241511394</v>
       </c>
       <c r="AD7" t="n">
-        <v>226594.7160544243</v>
+        <v>323856.5187575411</v>
       </c>
       <c r="AE7" t="n">
-        <v>310036.887158863</v>
+        <v>443114.7765053123</v>
       </c>
       <c r="AF7" t="n">
         <v>8.47868588467376e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>280447.401788017</v>
+        <v>400824.5241511394</v>
       </c>
     </row>
   </sheetData>
@@ -46158,28 +46158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.0916865602112</v>
+        <v>454.7509383529736</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.858834649592</v>
+        <v>622.2102960500208</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.4519563953331</v>
+        <v>562.8274186726413</v>
       </c>
       <c r="AD2" t="n">
-        <v>317091.6865602112</v>
+        <v>454750.9383529736</v>
       </c>
       <c r="AE2" t="n">
-        <v>433858.834649592</v>
+        <v>622210.2960500208</v>
       </c>
       <c r="AF2" t="n">
         <v>5.854276199114181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392451.9563953331</v>
+        <v>562827.4186726413</v>
       </c>
     </row>
     <row r="3">
@@ -46264,28 +46264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.996446658616</v>
+        <v>405.9471751152656</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.0494438248363</v>
+        <v>555.4348341181109</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.4419179580611</v>
+        <v>502.4249131075634</v>
       </c>
       <c r="AD3" t="n">
-        <v>287996.446658616</v>
+        <v>405947.1751152657</v>
       </c>
       <c r="AE3" t="n">
-        <v>394049.4438248363</v>
+        <v>555434.8341181108</v>
       </c>
       <c r="AF3" t="n">
         <v>6.436096440733264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>356441.9179580611</v>
+        <v>502424.9131075634</v>
       </c>
     </row>
     <row r="4">
@@ -46370,28 +46370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.9932785836407</v>
+        <v>381.1404879854766</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.5214473715939</v>
+        <v>521.4932303933357</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.873084675092</v>
+        <v>471.7226484049408</v>
       </c>
       <c r="AD4" t="n">
-        <v>272993.2785836408</v>
+        <v>381140.4879854766</v>
       </c>
       <c r="AE4" t="n">
-        <v>373521.4473715939</v>
+        <v>521493.2303933357</v>
       </c>
       <c r="AF4" t="n">
         <v>6.815741107961985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>337873.084675092</v>
+        <v>471722.6484049408</v>
       </c>
     </row>
     <row r="5">
@@ -46476,28 +46476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.6251352227652</v>
+        <v>367.7381792058202</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.230563864382</v>
+        <v>503.1556002528762</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.3278574183923</v>
+        <v>455.1351359480611</v>
       </c>
       <c r="AD5" t="n">
-        <v>259625.1352227652</v>
+        <v>367738.1792058202</v>
       </c>
       <c r="AE5" t="n">
-        <v>355230.563864382</v>
+        <v>503155.6002528762</v>
       </c>
       <c r="AF5" t="n">
         <v>7.08159676860611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>321327.8574183923</v>
+        <v>455135.1359480611</v>
       </c>
     </row>
     <row r="6">
@@ -46582,28 +46582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.6924348661651</v>
+        <v>354.8727986569277</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.5354726858504</v>
+        <v>485.5526190053495</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.3215609068246</v>
+        <v>439.212158524859</v>
       </c>
       <c r="AD6" t="n">
-        <v>246692.4348661651</v>
+        <v>354872.7986569277</v>
       </c>
       <c r="AE6" t="n">
-        <v>337535.4726858504</v>
+        <v>485552.6190053495</v>
       </c>
       <c r="AF6" t="n">
         <v>7.322513961955958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>305321.5609068247</v>
+        <v>439212.158524859</v>
       </c>
     </row>
     <row r="7">
@@ -46688,28 +46688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.5247103126395</v>
+        <v>343.834235240884</v>
       </c>
       <c r="AB7" t="n">
-        <v>335.937740435346</v>
+        <v>470.4491695524703</v>
       </c>
       <c r="AC7" t="n">
-        <v>303.8763139798766</v>
+        <v>425.5501610899381</v>
       </c>
       <c r="AD7" t="n">
-        <v>245524.7103126395</v>
+        <v>343834.235240884</v>
       </c>
       <c r="AE7" t="n">
-        <v>335937.740435346</v>
+        <v>470449.1695524703</v>
       </c>
       <c r="AF7" t="n">
         <v>7.428009478254314e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>303876.3139798766</v>
+        <v>425550.1610899381</v>
       </c>
     </row>
     <row r="8">
@@ -46794,28 +46794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>232.658828951924</v>
+        <v>331.0356736878726</v>
       </c>
       <c r="AB8" t="n">
-        <v>318.3340739549976</v>
+        <v>452.9376130029542</v>
       </c>
       <c r="AC8" t="n">
-        <v>287.9527167215059</v>
+        <v>409.7098829198839</v>
       </c>
       <c r="AD8" t="n">
-        <v>232658.828951924</v>
+        <v>331035.6736878726</v>
       </c>
       <c r="AE8" t="n">
-        <v>318334.0739549976</v>
+        <v>452937.6130029542</v>
       </c>
       <c r="AF8" t="n">
         <v>7.654021587663162e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>287952.7167215059</v>
+        <v>409709.8829198839</v>
       </c>
     </row>
     <row r="9">
@@ -46900,28 +46900,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>231.7167334921467</v>
+        <v>330.0935782280953</v>
       </c>
       <c r="AB9" t="n">
-        <v>317.0450573846126</v>
+        <v>451.6485964325686</v>
       </c>
       <c r="AC9" t="n">
-        <v>286.7867220834519</v>
+        <v>408.5438882818298</v>
       </c>
       <c r="AD9" t="n">
-        <v>231716.7334921467</v>
+        <v>330093.5782280953</v>
       </c>
       <c r="AE9" t="n">
-        <v>317045.0573846126</v>
+        <v>451648.5964325686</v>
       </c>
       <c r="AF9" t="n">
         <v>7.713989902040569e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>286786.7220834519</v>
+        <v>408543.8882818298</v>
       </c>
     </row>
     <row r="10">
@@ -47006,28 +47006,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>231.8434358754494</v>
+        <v>330.220280611398</v>
       </c>
       <c r="AB10" t="n">
-        <v>317.218417175162</v>
+        <v>451.821956223118</v>
       </c>
       <c r="AC10" t="n">
-        <v>286.9435366589032</v>
+        <v>408.7007028572812</v>
       </c>
       <c r="AD10" t="n">
-        <v>231843.4358754494</v>
+        <v>330220.280611398</v>
       </c>
       <c r="AE10" t="n">
-        <v>317218.4171751619</v>
+        <v>451821.956223118</v>
       </c>
       <c r="AF10" t="n">
         <v>7.703492547202743e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>286943.5366589032</v>
+        <v>408700.7028572811</v>
       </c>
     </row>
   </sheetData>
